--- a/output/fit_clients/fit_round_201.xlsx
+++ b/output/fit_clients/fit_round_201.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J101"/>
+  <dimension ref="A1:H101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,16 +469,6 @@
           <t>isSelected</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>involvement_history</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>reward</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -496,22 +486,16 @@
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>2292828738.746328</v>
+        <v>2373132157.907887</v>
       </c>
       <c r="F2" t="n">
-        <v>0.104242843744325</v>
+        <v>0.1113078559156702</v>
       </c>
       <c r="G2" t="n">
-        <v>0.04256065140122543</v>
+        <v>0.03287766714345085</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J2" t="n">
-        <v>1146414404.340847</v>
       </c>
     </row>
     <row r="3">
@@ -530,22 +514,16 @@
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>1826553678.166846</v>
+        <v>2468011433.960882</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1703446376858763</v>
+        <v>0.1501649944687411</v>
       </c>
       <c r="G3" t="n">
-        <v>0.04296258072110847</v>
+        <v>0.03694188310098079</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>4</v>
-      </c>
-      <c r="J3" t="n">
-        <v>913276852.2593081</v>
       </c>
     </row>
     <row r="4">
@@ -558,28 +536,22 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>5206392193.975697</v>
+        <v>4861900464.313656</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1298613292860906</v>
+        <v>0.1645417915574355</v>
       </c>
       <c r="G4" t="n">
-        <v>0.03506258247594449</v>
+        <v>0.02711286996008001</v>
       </c>
       <c r="H4" t="b">
         <v>0</v>
-      </c>
-      <c r="I4" t="n">
-        <v>73</v>
-      </c>
-      <c r="J4" t="n">
-        <v>2603196196.613678</v>
       </c>
     </row>
     <row r="5">
@@ -592,28 +564,22 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>2794159912.996643</v>
+        <v>4063677013.939701</v>
       </c>
       <c r="F5" t="n">
-        <v>0.09317576742745515</v>
+        <v>0.09504610952522552</v>
       </c>
       <c r="G5" t="n">
-        <v>0.03760098496103378</v>
+        <v>0.03114946682919943</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
-      </c>
-      <c r="I5" t="n">
-        <v>75</v>
-      </c>
-      <c r="J5" t="n">
-        <v>1397080039.920572</v>
       </c>
     </row>
     <row r="6">
@@ -626,28 +592,22 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2463151593.952</v>
+        <v>2569336446.663494</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1444562614297684</v>
+        <v>0.1369996662282272</v>
       </c>
       <c r="G6" t="n">
-        <v>0.03844462926232187</v>
+        <v>0.03644979655009492</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
-      </c>
-      <c r="I6" t="n">
-        <v>33</v>
-      </c>
-      <c r="J6" t="n">
-        <v>1231575776.426497</v>
       </c>
     </row>
     <row r="7">
@@ -666,22 +626,16 @@
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2595792621.391832</v>
+        <v>3048660523.964697</v>
       </c>
       <c r="F7" t="n">
-        <v>0.09839515681070689</v>
+        <v>0.07228982645070225</v>
       </c>
       <c r="G7" t="n">
-        <v>0.04444232021947396</v>
+        <v>0.04760693831416279</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
-      </c>
-      <c r="I7" t="n">
-        <v>62</v>
-      </c>
-      <c r="J7" t="n">
-        <v>1297896314.452726</v>
       </c>
     </row>
     <row r="8">
@@ -700,22 +654,16 @@
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>3384277700.69927</v>
+        <v>2977941491.158001</v>
       </c>
       <c r="F8" t="n">
-        <v>0.2108482061049853</v>
+        <v>0.1751991592261569</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02400255481584182</v>
+        <v>0.02708253711306349</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
-      </c>
-      <c r="I8" t="n">
-        <v>64</v>
-      </c>
-      <c r="J8" t="n">
-        <v>1692138947.130216</v>
       </c>
     </row>
     <row r="9">
@@ -728,28 +676,22 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>1999390550.162984</v>
+        <v>2227745905.778382</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1243883763931461</v>
+        <v>0.1934406959939166</v>
       </c>
       <c r="G9" t="n">
-        <v>0.02521136630102796</v>
+        <v>0.03506162569588045</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="n">
-        <v>999695301.7611276</v>
       </c>
     </row>
     <row r="10">
@@ -762,28 +704,22 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>5294144212.45299</v>
+        <v>4417179384.88431</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1907471764612045</v>
+        <v>0.154910983029945</v>
       </c>
       <c r="G10" t="n">
-        <v>0.04812835807673439</v>
+        <v>0.03959160957562315</v>
       </c>
       <c r="H10" t="b">
-        <v>0</v>
-      </c>
-      <c r="I10" t="n">
-        <v>85</v>
-      </c>
-      <c r="J10" t="n">
-        <v>2647072228.282406</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11">
@@ -796,28 +732,22 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>4273412375.119498</v>
+        <v>3178902469.411003</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1606743496342905</v>
+        <v>0.1676147661594613</v>
       </c>
       <c r="G11" t="n">
-        <v>0.0365624161426237</v>
+        <v>0.04481084799959862</v>
       </c>
       <c r="H11" t="b">
         <v>1</v>
-      </c>
-      <c r="I11" t="n">
-        <v>83</v>
-      </c>
-      <c r="J11" t="n">
-        <v>2136706219.290488</v>
       </c>
     </row>
     <row r="12">
@@ -830,28 +760,22 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2635168899.473272</v>
+        <v>2280073796.988318</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1573509817210739</v>
+        <v>0.1796656118296577</v>
       </c>
       <c r="G12" t="n">
-        <v>0.05384222382575721</v>
+        <v>0.04682216543094126</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
-      </c>
-      <c r="I12" t="n">
-        <v>71</v>
-      </c>
-      <c r="J12" t="n">
-        <v>1317584434.337165</v>
       </c>
     </row>
     <row r="13">
@@ -864,28 +788,22 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>4248151176.93594</v>
+        <v>3716146854.117167</v>
       </c>
       <c r="F13" t="n">
-        <v>0.07656158580580401</v>
+        <v>0.08937917778276533</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02965249157550313</v>
+        <v>0.02552902437275301</v>
       </c>
       <c r="H13" t="b">
-        <v>1</v>
-      </c>
-      <c r="I13" t="n">
-        <v>67</v>
-      </c>
-      <c r="J13" t="n">
-        <v>2124075630.778177</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -898,28 +816,22 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>3328684269.904018</v>
+        <v>2795233930.708612</v>
       </c>
       <c r="F14" t="n">
-        <v>0.148885438477394</v>
+        <v>0.1183322080441052</v>
       </c>
       <c r="G14" t="n">
-        <v>0.03048671391951798</v>
+        <v>0.03582557957411118</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
-      </c>
-      <c r="I14" t="n">
-        <v>66</v>
-      </c>
-      <c r="J14" t="n">
-        <v>1664342145.569531</v>
       </c>
     </row>
     <row r="15">
@@ -932,28 +844,22 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1594959809.381032</v>
+        <v>1455743998.504692</v>
       </c>
       <c r="F15" t="n">
-        <v>0.07915370326032563</v>
+        <v>0.0749561891630473</v>
       </c>
       <c r="G15" t="n">
-        <v>0.03025333370731913</v>
+        <v>0.0421069388484333</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
-      </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" t="n">
-        <v>797480011.6980259</v>
       </c>
     </row>
     <row r="16">
@@ -966,28 +872,22 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2513576059.215697</v>
+        <v>2681913149.058242</v>
       </c>
       <c r="F16" t="n">
-        <v>0.07720865835378207</v>
+        <v>0.1132090604273639</v>
       </c>
       <c r="G16" t="n">
-        <v>0.03294495458177892</v>
+        <v>0.03343868284722513</v>
       </c>
       <c r="H16" t="b">
-        <v>0</v>
-      </c>
-      <c r="I16" t="n">
-        <v>31</v>
-      </c>
-      <c r="J16" t="n">
-        <v>1256788059.190806</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17">
@@ -1006,22 +906,16 @@
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>4926220023.768506</v>
+        <v>4229990885.557281</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1499434229206456</v>
+        <v>0.1164154576596575</v>
       </c>
       <c r="G17" t="n">
-        <v>0.04206496326983099</v>
+        <v>0.05041193367952056</v>
       </c>
       <c r="H17" t="b">
         <v>0</v>
-      </c>
-      <c r="I17" t="n">
-        <v>59</v>
-      </c>
-      <c r="J17" t="n">
-        <v>2463110000.638275</v>
       </c>
     </row>
     <row r="18">
@@ -1034,28 +928,22 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>2422018997.420861</v>
+        <v>3603879086.441517</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1215681931971582</v>
+        <v>0.1290216057361298</v>
       </c>
       <c r="G18" t="n">
-        <v>0.02346555746893536</v>
+        <v>0.02807857386344037</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
-      </c>
-      <c r="I18" t="n">
-        <v>66</v>
-      </c>
-      <c r="J18" t="n">
-        <v>1211009570.795599</v>
       </c>
     </row>
     <row r="19">
@@ -1068,28 +956,22 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>838308090.4657801</v>
+        <v>1367026980.597872</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1440894016724319</v>
+        <v>0.1884073459986932</v>
       </c>
       <c r="G19" t="n">
-        <v>0.02412831526101634</v>
+        <v>0.02371853864916386</v>
       </c>
       <c r="H19" t="b">
-        <v>0</v>
-      </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
-      <c r="J19" t="n">
-        <v>419154035.0856007</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20">
@@ -1102,28 +984,22 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2668353383.426361</v>
+        <v>2701338158.388466</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1285952897094152</v>
+        <v>0.1131634937771246</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02747951722065849</v>
+        <v>0.02782572078046222</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
-      </c>
-      <c r="I20" t="n">
-        <v>33</v>
-      </c>
-      <c r="J20" t="n">
-        <v>1334176646.837162</v>
       </c>
     </row>
     <row r="21">
@@ -1142,22 +1018,16 @@
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>2414595132.557527</v>
+        <v>1811634513.86326</v>
       </c>
       <c r="F21" t="n">
-        <v>0.08946019440936144</v>
+        <v>0.09063012101902523</v>
       </c>
       <c r="G21" t="n">
-        <v>0.02859486130866677</v>
+        <v>0.02818207298224687</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
-      </c>
-      <c r="I21" t="n">
-        <v>15</v>
-      </c>
-      <c r="J21" t="n">
-        <v>1207297562.567328</v>
       </c>
     </row>
     <row r="22">
@@ -1170,28 +1040,22 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>3719404429.480506</v>
+        <v>3132222594.605073</v>
       </c>
       <c r="F22" t="n">
-        <v>0.126422705877539</v>
+        <v>0.124097149911728</v>
       </c>
       <c r="G22" t="n">
-        <v>0.0566359357385606</v>
+        <v>0.04130750791110991</v>
       </c>
       <c r="H22" t="b">
-        <v>0</v>
-      </c>
-      <c r="I22" t="n">
-        <v>56</v>
-      </c>
-      <c r="J22" t="n">
-        <v>1859702233.167484</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23">
@@ -1210,22 +1074,16 @@
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1257272965.528196</v>
+        <v>1111201664.53589</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1231755677535696</v>
+        <v>0.184761670767205</v>
       </c>
       <c r="G23" t="n">
-        <v>0.05335687596817464</v>
+        <v>0.0382651396265648</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
-      </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="n">
-        <v>628636509.5923408</v>
       </c>
     </row>
     <row r="24">
@@ -1244,22 +1102,16 @@
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>2984914767.495251</v>
+        <v>3325896542.522398</v>
       </c>
       <c r="F24" t="n">
-        <v>0.102447330916559</v>
+        <v>0.1329721229652916</v>
       </c>
       <c r="G24" t="n">
-        <v>0.03443891663858586</v>
+        <v>0.03668838166641493</v>
       </c>
       <c r="H24" t="b">
         <v>0</v>
-      </c>
-      <c r="I24" t="n">
-        <v>59</v>
-      </c>
-      <c r="J24" t="n">
-        <v>1492457419.988699</v>
       </c>
     </row>
     <row r="25">
@@ -1272,28 +1124,22 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1083129956.004566</v>
+        <v>980520934.361979</v>
       </c>
       <c r="F25" t="n">
-        <v>0.110630939981028</v>
+        <v>0.1116198248205389</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02546550470076362</v>
+        <v>0.02455849460226859</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
-      </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
-      <c r="J25" t="n">
-        <v>541565022.8335899</v>
       </c>
     </row>
     <row r="26">
@@ -1312,22 +1158,16 @@
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>904130000.2500113</v>
+        <v>1126896463.579423</v>
       </c>
       <c r="F26" t="n">
-        <v>0.1093904618283429</v>
+        <v>0.09077943149827639</v>
       </c>
       <c r="G26" t="n">
-        <v>0.02528024640426157</v>
+        <v>0.03100818773783817</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
-      </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
-      <c r="J26" t="n">
-        <v>452064948.7668632</v>
       </c>
     </row>
     <row r="27">
@@ -1340,28 +1180,22 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>4530669789.639071</v>
+        <v>4651593512.835608</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1095718733050577</v>
+        <v>0.1570113069449585</v>
       </c>
       <c r="G27" t="n">
-        <v>0.0239179513676663</v>
+        <v>0.01876463110577189</v>
       </c>
       <c r="H27" t="b">
         <v>0</v>
-      </c>
-      <c r="I27" t="n">
-        <v>48</v>
-      </c>
-      <c r="J27" t="n">
-        <v>2265334878.569009</v>
       </c>
     </row>
     <row r="28">
@@ -1374,28 +1208,22 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>3702433095.087699</v>
+        <v>3598479679.661384</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1257655458739077</v>
+        <v>0.1394123166550171</v>
       </c>
       <c r="G28" t="n">
-        <v>0.04128116899721079</v>
+        <v>0.04104376349400938</v>
       </c>
       <c r="H28" t="b">
-        <v>1</v>
-      </c>
-      <c r="I28" t="n">
-        <v>65</v>
-      </c>
-      <c r="J28" t="n">
-        <v>1851216619.706685</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -1408,28 +1236,22 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>5440254506.024316</v>
+        <v>4497261057.548135</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1100906977724903</v>
+        <v>0.1307776595806882</v>
       </c>
       <c r="G29" t="n">
-        <v>0.03823312584405927</v>
+        <v>0.0415689780487264</v>
       </c>
       <c r="H29" t="b">
-        <v>1</v>
-      </c>
-      <c r="I29" t="n">
-        <v>90</v>
-      </c>
-      <c r="J29" t="n">
-        <v>2720127170.094349</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -1442,28 +1264,22 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>1884105809.60928</v>
+        <v>2197401418.300923</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1099867236135562</v>
+        <v>0.09064731610622122</v>
       </c>
       <c r="G30" t="n">
-        <v>0.02872082169376874</v>
+        <v>0.03127011274442065</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
-      </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
-      <c r="J30" t="n">
-        <v>942052929.0457747</v>
       </c>
     </row>
     <row r="31">
@@ -1476,28 +1292,22 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>994778826.4124511</v>
+        <v>1447205032.226497</v>
       </c>
       <c r="F31" t="n">
-        <v>0.08305383002289574</v>
+        <v>0.08991424415532885</v>
       </c>
       <c r="G31" t="n">
-        <v>0.03939394055639122</v>
+        <v>0.05179242540370793</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
-      </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
-      <c r="J31" t="n">
-        <v>497389412.9601926</v>
       </c>
     </row>
     <row r="32">
@@ -1510,28 +1320,22 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1453514389.618033</v>
+        <v>1286376557.243756</v>
       </c>
       <c r="F32" t="n">
-        <v>0.08736593583949051</v>
+        <v>0.1046371490251639</v>
       </c>
       <c r="G32" t="n">
-        <v>0.03198045060635552</v>
+        <v>0.02373671404449295</v>
       </c>
       <c r="H32" t="b">
-        <v>0</v>
-      </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
-      <c r="J32" t="n">
-        <v>726757253.5205349</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33">
@@ -1550,22 +1354,16 @@
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>3036417456.218713</v>
+        <v>3065809340.745719</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1268740174344464</v>
+        <v>0.1577415153843953</v>
       </c>
       <c r="G33" t="n">
-        <v>0.05740286233657105</v>
+        <v>0.03705885078355273</v>
       </c>
       <c r="H33" t="b">
-        <v>1</v>
-      </c>
-      <c r="I33" t="n">
-        <v>60</v>
-      </c>
-      <c r="J33" t="n">
-        <v>1518208720.630369</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -1584,22 +1382,16 @@
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1481678962.213191</v>
+        <v>1195708343.861196</v>
       </c>
       <c r="F34" t="n">
-        <v>0.08139662687538665</v>
+        <v>0.0757743204308832</v>
       </c>
       <c r="G34" t="n">
-        <v>0.02233345273660342</v>
+        <v>0.02588072386291303</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
-      </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
-      <c r="J34" t="n">
-        <v>740839439.987963</v>
       </c>
     </row>
     <row r="35">
@@ -1612,28 +1404,22 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>846293687.573064</v>
+        <v>1232917907.186184</v>
       </c>
       <c r="F35" t="n">
-        <v>0.07526814476846919</v>
+        <v>0.07572763047250237</v>
       </c>
       <c r="G35" t="n">
-        <v>0.04147660275241651</v>
+        <v>0.04485877803343173</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
-      </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
-      <c r="J35" t="n">
-        <v>423146896.0494579</v>
       </c>
     </row>
     <row r="36">
@@ -1646,28 +1432,22 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>3157375672.207716</v>
+        <v>2072637743.74575</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1092233633202106</v>
+        <v>0.1578286880682083</v>
       </c>
       <c r="G36" t="n">
-        <v>0.01793175703533267</v>
+        <v>0.0211615314255528</v>
       </c>
       <c r="H36" t="b">
-        <v>1</v>
-      </c>
-      <c r="I36" t="n">
-        <v>50</v>
-      </c>
-      <c r="J36" t="n">
-        <v>1578687805.411277</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -1686,22 +1466,16 @@
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2011790197.720511</v>
+        <v>2801503494.491054</v>
       </c>
       <c r="F37" t="n">
-        <v>0.1114350239833908</v>
+        <v>0.09391034353754578</v>
       </c>
       <c r="G37" t="n">
-        <v>0.02718514814932467</v>
+        <v>0.03919905038928238</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
-      </c>
-      <c r="I37" t="n">
-        <v>53</v>
-      </c>
-      <c r="J37" t="n">
-        <v>1005895127.778037</v>
       </c>
     </row>
     <row r="38">
@@ -1714,28 +1488,22 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1772427066.835484</v>
+        <v>1779493525.528656</v>
       </c>
       <c r="F38" t="n">
-        <v>0.0777188230443676</v>
+        <v>0.0770672526024069</v>
       </c>
       <c r="G38" t="n">
-        <v>0.03814196565991243</v>
+        <v>0.02773830896227503</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
-      </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
-      <c r="J38" t="n">
-        <v>886213544.1699407</v>
       </c>
     </row>
     <row r="39">
@@ -1748,28 +1516,22 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1548485610.398607</v>
+        <v>1511019490.986879</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1926397086599312</v>
+        <v>0.126820537821696</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02925782913646531</v>
+        <v>0.02589156776346523</v>
       </c>
       <c r="H39" t="b">
-        <v>0</v>
-      </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
-      <c r="J39" t="n">
-        <v>774242868.2507952</v>
+        <v>1</v>
       </c>
     </row>
     <row r="40">
@@ -1782,28 +1544,22 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1416772074.358191</v>
+        <v>1511132416.023205</v>
       </c>
       <c r="F40" t="n">
-        <v>0.100570537250045</v>
+        <v>0.1140712706602949</v>
       </c>
       <c r="G40" t="n">
-        <v>0.03701331332540173</v>
+        <v>0.04396982388734712</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
-      </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
-      <c r="J40" t="n">
-        <v>708386024.1719717</v>
       </c>
     </row>
     <row r="41">
@@ -1816,28 +1572,22 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>1782083263.06367</v>
+        <v>2363282508.401443</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1116906384999507</v>
+        <v>0.1113007445205609</v>
       </c>
       <c r="G41" t="n">
-        <v>0.03952327107378644</v>
+        <v>0.03015182106935189</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
-      </c>
-      <c r="I41" t="n">
-        <v>50</v>
-      </c>
-      <c r="J41" t="n">
-        <v>891041727.0511235</v>
       </c>
     </row>
     <row r="42">
@@ -1850,28 +1600,22 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>3381480892.428301</v>
+        <v>3988981909.080534</v>
       </c>
       <c r="F42" t="n">
-        <v>0.08130588527050998</v>
+        <v>0.1208953286259037</v>
       </c>
       <c r="G42" t="n">
-        <v>0.04288198485369039</v>
+        <v>0.04293009555854756</v>
       </c>
       <c r="H42" t="b">
         <v>0</v>
-      </c>
-      <c r="I42" t="n">
-        <v>66</v>
-      </c>
-      <c r="J42" t="n">
-        <v>1690740432.883834</v>
       </c>
     </row>
     <row r="43">
@@ -1884,28 +1628,22 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2842762073.930276</v>
+        <v>1912049049.540293</v>
       </c>
       <c r="F43" t="n">
-        <v>0.144540374262479</v>
+        <v>0.140092141329903</v>
       </c>
       <c r="G43" t="n">
-        <v>0.02453607229756723</v>
+        <v>0.01956787144174325</v>
       </c>
       <c r="H43" t="b">
-        <v>0</v>
-      </c>
-      <c r="I43" t="n">
-        <v>69</v>
-      </c>
-      <c r="J43" t="n">
-        <v>1421381051.122887</v>
+        <v>1</v>
       </c>
     </row>
     <row r="44">
@@ -1918,28 +1656,22 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>2127559066.305464</v>
+        <v>1978011155.903968</v>
       </c>
       <c r="F44" t="n">
-        <v>0.102074732581074</v>
+        <v>0.07547681547722966</v>
       </c>
       <c r="G44" t="n">
-        <v>0.03446550124649154</v>
+        <v>0.03487453574684115</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
-      </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
-      <c r="J44" t="n">
-        <v>1063779664.925568</v>
       </c>
     </row>
     <row r="45">
@@ -1958,22 +1690,16 @@
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>2426052615.72449</v>
+        <v>2037761774.482733</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1621209654431689</v>
+        <v>0.1685693655694889</v>
       </c>
       <c r="G45" t="n">
-        <v>0.05500513773441822</v>
+        <v>0.05605114935933541</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
-      </c>
-      <c r="I45" t="n">
-        <v>0</v>
-      </c>
-      <c r="J45" t="n">
-        <v>1213026341.626798</v>
       </c>
     </row>
     <row r="46">
@@ -1992,22 +1718,16 @@
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>4122326777.801141</v>
+        <v>3842858358.651536</v>
       </c>
       <c r="F46" t="n">
-        <v>0.118091134563246</v>
+        <v>0.1566870040798052</v>
       </c>
       <c r="G46" t="n">
-        <v>0.03764836131522156</v>
+        <v>0.04464865177499198</v>
       </c>
       <c r="H46" t="b">
-        <v>1</v>
-      </c>
-      <c r="I46" t="n">
-        <v>71</v>
-      </c>
-      <c r="J46" t="n">
-        <v>2061163365.429129</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47">
@@ -2026,22 +1746,16 @@
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>3379010375.231437</v>
+        <v>3929848189.937443</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1384283811474172</v>
+        <v>0.1390184658256381</v>
       </c>
       <c r="G47" t="n">
-        <v>0.05250578392752035</v>
+        <v>0.04852940769310013</v>
       </c>
       <c r="H47" t="b">
         <v>0</v>
-      </c>
-      <c r="I47" t="n">
-        <v>54</v>
-      </c>
-      <c r="J47" t="n">
-        <v>1689505151.535547</v>
       </c>
     </row>
     <row r="48">
@@ -2054,28 +1768,22 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>3032337309.071715</v>
+        <v>4548680876.702453</v>
       </c>
       <c r="F48" t="n">
-        <v>0.09435692581418002</v>
+        <v>0.08595604666010971</v>
       </c>
       <c r="G48" t="n">
-        <v>0.03478817377077752</v>
+        <v>0.03721900026023811</v>
       </c>
       <c r="H48" t="b">
-        <v>1</v>
-      </c>
-      <c r="I48" t="n">
-        <v>65</v>
-      </c>
-      <c r="J48" t="n">
-        <v>1516168745.112021</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49">
@@ -2094,22 +1802,16 @@
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1936254859.713857</v>
+        <v>1531200344.133934</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1895302944533499</v>
+        <v>0.1722319789205527</v>
       </c>
       <c r="G49" t="n">
-        <v>0.03775594570470145</v>
+        <v>0.03001150826575211</v>
       </c>
       <c r="H49" t="b">
-        <v>0</v>
-      </c>
-      <c r="I49" t="n">
-        <v>0</v>
-      </c>
-      <c r="J49" t="n">
-        <v>968127394.0419393</v>
+        <v>1</v>
       </c>
     </row>
     <row r="50">
@@ -2122,28 +1824,22 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>4171607035.369757</v>
+        <v>3166250954.04364</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1481417636111876</v>
+        <v>0.11894140305398</v>
       </c>
       <c r="G50" t="n">
-        <v>0.0415933094959255</v>
+        <v>0.05332289147521035</v>
       </c>
       <c r="H50" t="b">
         <v>0</v>
-      </c>
-      <c r="I50" t="n">
-        <v>69</v>
-      </c>
-      <c r="J50" t="n">
-        <v>2085803494.135798</v>
       </c>
     </row>
     <row r="51">
@@ -2156,28 +1852,22 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1191323548.893733</v>
+        <v>1521601634.606313</v>
       </c>
       <c r="F51" t="n">
-        <v>0.150455870761775</v>
+        <v>0.1483464527077868</v>
       </c>
       <c r="G51" t="n">
-        <v>0.04810808666993589</v>
+        <v>0.0517246447910779</v>
       </c>
       <c r="H51" t="b">
-        <v>0</v>
-      </c>
-      <c r="I51" t="n">
-        <v>0</v>
-      </c>
-      <c r="J51" t="n">
-        <v>595661827.3906702</v>
+        <v>1</v>
       </c>
     </row>
     <row r="52">
@@ -2196,22 +1886,16 @@
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>4883146619.000896</v>
+        <v>3831700585.489198</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1039930800743805</v>
+        <v>0.1288055777803189</v>
       </c>
       <c r="G52" t="n">
-        <v>0.0422611700155358</v>
+        <v>0.04363355623970062</v>
       </c>
       <c r="H52" t="b">
         <v>0</v>
-      </c>
-      <c r="I52" t="n">
-        <v>83</v>
-      </c>
-      <c r="J52" t="n">
-        <v>2441573313.978218</v>
       </c>
     </row>
     <row r="53">
@@ -2224,28 +1908,22 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>3485743786.967333</v>
+        <v>3378307635.172528</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1852782552483635</v>
+        <v>0.1631467220842276</v>
       </c>
       <c r="G53" t="n">
-        <v>0.03482386770514508</v>
+        <v>0.02478883815558242</v>
       </c>
       <c r="H53" t="b">
-        <v>1</v>
-      </c>
-      <c r="I53" t="n">
-        <v>57</v>
-      </c>
-      <c r="J53" t="n">
-        <v>1742871892.365127</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54">
@@ -2258,28 +1936,22 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>3399845996.668283</v>
+        <v>4108560960.688354</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1256121702752799</v>
+        <v>0.1606179603555567</v>
       </c>
       <c r="G54" t="n">
-        <v>0.0441434379559982</v>
+        <v>0.03197917272965398</v>
       </c>
       <c r="H54" t="b">
         <v>0</v>
-      </c>
-      <c r="I54" t="n">
-        <v>65</v>
-      </c>
-      <c r="J54" t="n">
-        <v>1699923015.241545</v>
       </c>
     </row>
     <row r="55">
@@ -2298,22 +1970,16 @@
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>4268957275.572056</v>
+        <v>4273509443.544699</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1587275496887872</v>
+        <v>0.1599547899744851</v>
       </c>
       <c r="G55" t="n">
-        <v>0.03099306974764162</v>
+        <v>0.0209628607019566</v>
       </c>
       <c r="H55" t="b">
-        <v>1</v>
-      </c>
-      <c r="I55" t="n">
-        <v>54</v>
-      </c>
-      <c r="J55" t="n">
-        <v>2134478624.568308</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56">
@@ -2326,28 +1992,22 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1167522222.66614</v>
+        <v>1650793198.7036</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1213738392210024</v>
+        <v>0.1198170963692054</v>
       </c>
       <c r="G56" t="n">
-        <v>0.04566874329101581</v>
+        <v>0.04444605061727202</v>
       </c>
       <c r="H56" t="b">
-        <v>0</v>
-      </c>
-      <c r="I56" t="n">
-        <v>0</v>
-      </c>
-      <c r="J56" t="n">
-        <v>583761202.8287742</v>
+        <v>1</v>
       </c>
     </row>
     <row r="57">
@@ -2360,28 +2020,22 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>3218109198.670428</v>
+        <v>4369707919.53734</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1616227989075592</v>
+        <v>0.1388663789565697</v>
       </c>
       <c r="G57" t="n">
-        <v>0.0232253701438874</v>
+        <v>0.01983520304311757</v>
       </c>
       <c r="H57" t="b">
         <v>1</v>
-      </c>
-      <c r="I57" t="n">
-        <v>64</v>
-      </c>
-      <c r="J57" t="n">
-        <v>1609054622.03437</v>
       </c>
     </row>
     <row r="58">
@@ -2394,28 +2048,22 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1623159482.042079</v>
+        <v>1279706754.262158</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1345589997275929</v>
+        <v>0.1558687407564872</v>
       </c>
       <c r="G58" t="n">
-        <v>0.03368276107642849</v>
+        <v>0.03423941376139867</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
-      </c>
-      <c r="I58" t="n">
-        <v>0</v>
-      </c>
-      <c r="J58" t="n">
-        <v>811579760.9000103</v>
       </c>
     </row>
     <row r="59">
@@ -2428,28 +2076,22 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>4562038626.64634</v>
+        <v>4281465544.084528</v>
       </c>
       <c r="F59" t="n">
-        <v>0.08194535168836123</v>
+        <v>0.09738840786415351</v>
       </c>
       <c r="G59" t="n">
-        <v>0.04070162007438288</v>
+        <v>0.04788655393836261</v>
       </c>
       <c r="H59" t="b">
         <v>0</v>
-      </c>
-      <c r="I59" t="n">
-        <v>57</v>
-      </c>
-      <c r="J59" t="n">
-        <v>2281019262.154418</v>
       </c>
     </row>
     <row r="60">
@@ -2462,28 +2104,22 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>2984119171.458766</v>
+        <v>3310753829.400457</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1702420328652447</v>
+        <v>0.1799582425351322</v>
       </c>
       <c r="G60" t="n">
-        <v>0.02961767026073961</v>
+        <v>0.03279682289066237</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
-      </c>
-      <c r="I60" t="n">
-        <v>63</v>
-      </c>
-      <c r="J60" t="n">
-        <v>1492059654.394115</v>
       </c>
     </row>
     <row r="61">
@@ -2502,22 +2138,16 @@
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>3017815517.460273</v>
+        <v>2491840709.728008</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1140838358430085</v>
+        <v>0.1429419995121413</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02472842639188805</v>
+        <v>0.03298449280625722</v>
       </c>
       <c r="H61" t="b">
-        <v>1</v>
-      </c>
-      <c r="I61" t="n">
-        <v>70</v>
-      </c>
-      <c r="J61" t="n">
-        <v>1508907737.499668</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62">
@@ -2530,28 +2160,22 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1747309751.773534</v>
+        <v>2011226957.432401</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1194245532236202</v>
+        <v>0.1248275442430452</v>
       </c>
       <c r="G62" t="n">
-        <v>0.03158677480838351</v>
+        <v>0.03097865865434392</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
-      </c>
-      <c r="I62" t="n">
-        <v>0</v>
-      </c>
-      <c r="J62" t="n">
-        <v>873654896.0249978</v>
       </c>
     </row>
     <row r="63">
@@ -2564,28 +2188,22 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>3571021272.582607</v>
+        <v>3480743891.592856</v>
       </c>
       <c r="F63" t="n">
-        <v>0.07097163170697832</v>
+        <v>0.08403477745398252</v>
       </c>
       <c r="G63" t="n">
-        <v>0.04744303762514639</v>
+        <v>0.03031547049420761</v>
       </c>
       <c r="H63" t="b">
-        <v>0</v>
-      </c>
-      <c r="I63" t="n">
-        <v>58</v>
-      </c>
-      <c r="J63" t="n">
-        <v>1785510717.787189</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64">
@@ -2598,28 +2216,22 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>5215703094.521539</v>
+        <v>4618069791.756831</v>
       </c>
       <c r="F64" t="n">
-        <v>0.136214747943462</v>
+        <v>0.1631753251053052</v>
       </c>
       <c r="G64" t="n">
-        <v>0.03187746815222497</v>
+        <v>0.02221265013497049</v>
       </c>
       <c r="H64" t="b">
-        <v>1</v>
-      </c>
-      <c r="I64" t="n">
-        <v>62</v>
-      </c>
-      <c r="J64" t="n">
-        <v>2607851668.602868</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65">
@@ -2632,28 +2244,22 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>4690528150.202338</v>
+        <v>4167567804.31069</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1562658765262729</v>
+        <v>0.1340628836680925</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02778306640314246</v>
+        <v>0.03219497598677088</v>
       </c>
       <c r="H65" t="b">
-        <v>0</v>
-      </c>
-      <c r="I65" t="n">
-        <v>73</v>
-      </c>
-      <c r="J65" t="n">
-        <v>2345264052.465834</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66">
@@ -2666,28 +2272,22 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>5060219889.356623</v>
+        <v>4696749878.227094</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1186650178975283</v>
+        <v>0.124272061815064</v>
       </c>
       <c r="G66" t="n">
-        <v>0.04458140272927749</v>
+        <v>0.03767924028017019</v>
       </c>
       <c r="H66" t="b">
-        <v>1</v>
-      </c>
-      <c r="I66" t="n">
-        <v>58</v>
-      </c>
-      <c r="J66" t="n">
-        <v>2530109975.080973</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67">
@@ -2700,28 +2300,22 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>2933832173.948595</v>
+        <v>2131472231.87331</v>
       </c>
       <c r="F67" t="n">
-        <v>0.08739192790756471</v>
+        <v>0.09648526263960461</v>
       </c>
       <c r="G67" t="n">
-        <v>0.03184214513702994</v>
+        <v>0.04939713193121043</v>
       </c>
       <c r="H67" t="b">
-        <v>0</v>
-      </c>
-      <c r="I67" t="n">
-        <v>65</v>
-      </c>
-      <c r="J67" t="n">
-        <v>1466916110.788511</v>
+        <v>1</v>
       </c>
     </row>
     <row r="68">
@@ -2740,22 +2334,16 @@
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>3877108738.010161</v>
+        <v>5970672347.136566</v>
       </c>
       <c r="F68" t="n">
-        <v>0.128218244468766</v>
+        <v>0.1422826690528648</v>
       </c>
       <c r="G68" t="n">
-        <v>0.03177874139391188</v>
+        <v>0.0380192285240367</v>
       </c>
       <c r="H68" t="b">
         <v>0</v>
-      </c>
-      <c r="I68" t="n">
-        <v>65</v>
-      </c>
-      <c r="J68" t="n">
-        <v>1938554357.322395</v>
       </c>
     </row>
     <row r="69">
@@ -2768,28 +2356,22 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>2056408589.408089</v>
+        <v>2305164244.543092</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1167892568722613</v>
+        <v>0.1541762572794083</v>
       </c>
       <c r="G69" t="n">
-        <v>0.04613131513880254</v>
+        <v>0.04665258230633133</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
-      </c>
-      <c r="I69" t="n">
-        <v>0</v>
-      </c>
-      <c r="J69" t="n">
-        <v>1028204306.962916</v>
       </c>
     </row>
     <row r="70">
@@ -2802,28 +2384,22 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>3114449869.035577</v>
+        <v>2934546585.466321</v>
       </c>
       <c r="F70" t="n">
-        <v>0.07814769389921505</v>
+        <v>0.09115120092962467</v>
       </c>
       <c r="G70" t="n">
-        <v>0.03626630004754382</v>
+        <v>0.04912519867321458</v>
       </c>
       <c r="H70" t="b">
-        <v>1</v>
-      </c>
-      <c r="I70" t="n">
-        <v>57</v>
-      </c>
-      <c r="J70" t="n">
-        <v>1557224918.898774</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71">
@@ -2836,28 +2412,22 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>4348578990.592962</v>
+        <v>4290957407.402531</v>
       </c>
       <c r="F71" t="n">
-        <v>0.125284857361334</v>
+        <v>0.1333955094479859</v>
       </c>
       <c r="G71" t="n">
-        <v>0.02379732960533425</v>
+        <v>0.02687768082356284</v>
       </c>
       <c r="H71" t="b">
-        <v>1</v>
-      </c>
-      <c r="I71" t="n">
-        <v>73</v>
-      </c>
-      <c r="J71" t="n">
-        <v>2174289552.325345</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72">
@@ -2870,28 +2440,22 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>1711077534.59976</v>
+        <v>2272992641.631531</v>
       </c>
       <c r="F72" t="n">
-        <v>0.09341049250760457</v>
+        <v>0.07855926784369141</v>
       </c>
       <c r="G72" t="n">
-        <v>0.05024107827713593</v>
+        <v>0.04880006709065686</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
-      </c>
-      <c r="I72" t="n">
-        <v>0</v>
-      </c>
-      <c r="J72" t="n">
-        <v>855538760.1911241</v>
       </c>
     </row>
     <row r="73">
@@ -2904,28 +2468,22 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>3495236387.440347</v>
+        <v>2960816121.867244</v>
       </c>
       <c r="F73" t="n">
-        <v>0.06857305550632999</v>
+        <v>0.1071862421270706</v>
       </c>
       <c r="G73" t="n">
-        <v>0.04038394406812219</v>
+        <v>0.04857215012951194</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
-      </c>
-      <c r="I73" t="n">
-        <v>78</v>
-      </c>
-      <c r="J73" t="n">
-        <v>1747618144.328129</v>
       </c>
     </row>
     <row r="74">
@@ -2938,28 +2496,22 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>3218852020.055999</v>
+        <v>2787976241.929595</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1332833725449669</v>
+        <v>0.1775424025427153</v>
       </c>
       <c r="G74" t="n">
-        <v>0.02485603412209998</v>
+        <v>0.02411491546979499</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
-      </c>
-      <c r="I74" t="n">
-        <v>69</v>
-      </c>
-      <c r="J74" t="n">
-        <v>1609426056.483528</v>
       </c>
     </row>
     <row r="75">
@@ -2972,28 +2524,22 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>2313155478.941112</v>
+        <v>1977961539.757252</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1491559754539773</v>
+        <v>0.1539743552964815</v>
       </c>
       <c r="G75" t="n">
-        <v>0.02986755834830833</v>
+        <v>0.03181791952947439</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
-      </c>
-      <c r="I75" t="n">
-        <v>0</v>
-      </c>
-      <c r="J75" t="n">
-        <v>1156577674.334004</v>
       </c>
     </row>
     <row r="76">
@@ -3006,28 +2552,22 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>3639725089.434017</v>
+        <v>4451180156.5304</v>
       </c>
       <c r="F76" t="n">
-        <v>0.08388050637167968</v>
+        <v>0.07776962631085739</v>
       </c>
       <c r="G76" t="n">
-        <v>0.03326534384511903</v>
+        <v>0.03365706491006525</v>
       </c>
       <c r="H76" t="b">
-        <v>1</v>
-      </c>
-      <c r="I76" t="n">
-        <v>49</v>
-      </c>
-      <c r="J76" t="n">
-        <v>1819862514.307891</v>
+        <v>0</v>
       </c>
     </row>
     <row r="77">
@@ -3040,28 +2580,22 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>2087060458.42713</v>
+        <v>1394495991.793523</v>
       </c>
       <c r="F77" t="n">
-        <v>0.123785852097892</v>
+        <v>0.1177211421366422</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02153431793268525</v>
+        <v>0.02356297722471974</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
-      </c>
-      <c r="I77" t="n">
-        <v>0</v>
-      </c>
-      <c r="J77" t="n">
-        <v>1043530303.605678</v>
       </c>
     </row>
     <row r="78">
@@ -3080,22 +2614,16 @@
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>3919796242.183181</v>
+        <v>4579899578.743483</v>
       </c>
       <c r="F78" t="n">
-        <v>0.1182526340343487</v>
+        <v>0.1090854158614346</v>
       </c>
       <c r="G78" t="n">
-        <v>0.04891879052409408</v>
+        <v>0.04400185114616048</v>
       </c>
       <c r="H78" t="b">
         <v>0</v>
-      </c>
-      <c r="I78" t="n">
-        <v>70</v>
-      </c>
-      <c r="J78" t="n">
-        <v>1959898092.551022</v>
       </c>
     </row>
     <row r="79">
@@ -3108,28 +2636,22 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1744000088.759526</v>
+        <v>1422766788.006353</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1249584032829791</v>
+        <v>0.1093282522367007</v>
       </c>
       <c r="G79" t="n">
-        <v>0.03862220431839958</v>
+        <v>0.03803830352808917</v>
       </c>
       <c r="H79" t="b">
-        <v>0</v>
-      </c>
-      <c r="I79" t="n">
-        <v>0</v>
-      </c>
-      <c r="J79" t="n">
-        <v>872000121.2593353</v>
+        <v>1</v>
       </c>
     </row>
     <row r="80">
@@ -3142,28 +2664,22 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>4742608549.118258</v>
+        <v>5372756095.646259</v>
       </c>
       <c r="F80" t="n">
-        <v>0.1096687085260265</v>
+        <v>0.1022757994278495</v>
       </c>
       <c r="G80" t="n">
-        <v>0.0279984809467691</v>
+        <v>0.03630822899562041</v>
       </c>
       <c r="H80" t="b">
         <v>0</v>
-      </c>
-      <c r="I80" t="n">
-        <v>42</v>
-      </c>
-      <c r="J80" t="n">
-        <v>2371304310.956683</v>
       </c>
     </row>
     <row r="81">
@@ -3176,28 +2692,22 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>3467411768.09545</v>
+        <v>3800481081.522007</v>
       </c>
       <c r="F81" t="n">
-        <v>0.08737236545898833</v>
+        <v>0.1042459266002866</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02608330089423092</v>
+        <v>0.02625662728759769</v>
       </c>
       <c r="H81" t="b">
-        <v>0</v>
-      </c>
-      <c r="I81" t="n">
-        <v>46</v>
-      </c>
-      <c r="J81" t="n">
-        <v>1733705827.437254</v>
+        <v>1</v>
       </c>
     </row>
     <row r="82">
@@ -3210,28 +2720,22 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>3604833070.627224</v>
+        <v>4349836389.624978</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1737147104770531</v>
+        <v>0.1847458430100462</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02776186337649869</v>
+        <v>0.02738775807977271</v>
       </c>
       <c r="H82" t="b">
-        <v>1</v>
-      </c>
-      <c r="I82" t="n">
-        <v>73</v>
-      </c>
-      <c r="J82" t="n">
-        <v>1802416597.077069</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83">
@@ -3250,22 +2754,16 @@
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>2359123320.078219</v>
+        <v>2143456122.678741</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1306824837811353</v>
+        <v>0.1533541118847996</v>
       </c>
       <c r="G83" t="n">
-        <v>0.04422390573718606</v>
+        <v>0.03870860439214902</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
-      </c>
-      <c r="I83" t="n">
-        <v>1</v>
-      </c>
-      <c r="J83" t="n">
-        <v>1179561690.053094</v>
       </c>
     </row>
     <row r="84">
@@ -3284,22 +2782,16 @@
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>2149567472.060225</v>
+        <v>1944700666.504834</v>
       </c>
       <c r="F84" t="n">
-        <v>0.1148520400262308</v>
+        <v>0.1027663556491942</v>
       </c>
       <c r="G84" t="n">
-        <v>0.03907748861276714</v>
+        <v>0.05125764772574597</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
-      </c>
-      <c r="I84" t="n">
-        <v>2</v>
-      </c>
-      <c r="J84" t="n">
-        <v>1074783719.099608</v>
       </c>
     </row>
     <row r="85">
@@ -3312,28 +2804,22 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>3059577365.791331</v>
+        <v>3150827985.786199</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1705035768953153</v>
+        <v>0.161342502737043</v>
       </c>
       <c r="G85" t="n">
-        <v>0.05668664075528973</v>
+        <v>0.04137349950713713</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
-      </c>
-      <c r="I85" t="n">
-        <v>76</v>
-      </c>
-      <c r="J85" t="n">
-        <v>1529788749.596221</v>
       </c>
     </row>
     <row r="86">
@@ -3346,28 +2832,22 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2475643457.885341</v>
+        <v>2324413029.28059</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1099128086825175</v>
+        <v>0.1555313375369966</v>
       </c>
       <c r="G86" t="n">
-        <v>0.02439615131347774</v>
+        <v>0.0165792753730864</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
-      </c>
-      <c r="I86" t="n">
-        <v>27</v>
-      </c>
-      <c r="J86" t="n">
-        <v>1237821822.706513</v>
       </c>
     </row>
     <row r="87">
@@ -3386,22 +2866,16 @@
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1287585490.217953</v>
+        <v>1353921835.007592</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1545726637949361</v>
+        <v>0.1373813917705479</v>
       </c>
       <c r="G87" t="n">
-        <v>0.04097076796394607</v>
+        <v>0.03868526156872443</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
-      </c>
-      <c r="I87" t="n">
-        <v>0</v>
-      </c>
-      <c r="J87" t="n">
-        <v>643792823.1152861</v>
       </c>
     </row>
     <row r="88">
@@ -3414,28 +2888,22 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>3194415886.794081</v>
+        <v>2637325052.92412</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1157470664054193</v>
+        <v>0.1351610624615779</v>
       </c>
       <c r="G88" t="n">
-        <v>0.02695624478784337</v>
+        <v>0.03987296526352126</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
-      </c>
-      <c r="I88" t="n">
-        <v>80</v>
-      </c>
-      <c r="J88" t="n">
-        <v>1597207993.028639</v>
       </c>
     </row>
     <row r="89">
@@ -3448,28 +2916,22 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>3000070653.382977</v>
+        <v>2714627989.720348</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1567147884457309</v>
+        <v>0.1525225864641112</v>
       </c>
       <c r="G89" t="n">
-        <v>0.03644842058895788</v>
+        <v>0.0376264415595693</v>
       </c>
       <c r="H89" t="b">
-        <v>0</v>
-      </c>
-      <c r="I89" t="n">
-        <v>69</v>
-      </c>
-      <c r="J89" t="n">
-        <v>1500035364.789683</v>
+        <v>1</v>
       </c>
     </row>
     <row r="90">
@@ -3482,28 +2944,22 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1779668479.042192</v>
+        <v>1699277044.362093</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1169723166859728</v>
+        <v>0.09879996849419632</v>
       </c>
       <c r="G90" t="n">
-        <v>0.03453815192745931</v>
+        <v>0.05216744457863019</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
-      </c>
-      <c r="I90" t="n">
-        <v>0</v>
-      </c>
-      <c r="J90" t="n">
-        <v>889834269.3941946</v>
       </c>
     </row>
     <row r="91">
@@ -3516,28 +2972,22 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1783567771.561774</v>
+        <v>2076434126.430049</v>
       </c>
       <c r="F91" t="n">
-        <v>0.186536234737485</v>
+        <v>0.1264242739339551</v>
       </c>
       <c r="G91" t="n">
-        <v>0.05919102692273599</v>
+        <v>0.05020707306658613</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
-      </c>
-      <c r="I91" t="n">
-        <v>0</v>
-      </c>
-      <c r="J91" t="n">
-        <v>891783886.8684611</v>
       </c>
     </row>
     <row r="92">
@@ -3556,22 +3006,16 @@
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2019021750.279569</v>
+        <v>2114386649.014352</v>
       </c>
       <c r="F92" t="n">
-        <v>0.1047472194369606</v>
+        <v>0.1087062753646059</v>
       </c>
       <c r="G92" t="n">
-        <v>0.04310277227991004</v>
+        <v>0.03873594240696655</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
-      </c>
-      <c r="I92" t="n">
-        <v>49</v>
-      </c>
-      <c r="J92" t="n">
-        <v>1009510822.773736</v>
       </c>
     </row>
     <row r="93">
@@ -3584,28 +3028,22 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>4921076994.28476</v>
+        <v>4031462897.197011</v>
       </c>
       <c r="F93" t="n">
-        <v>0.08559817428428895</v>
+        <v>0.1316081619416075</v>
       </c>
       <c r="G93" t="n">
-        <v>0.05108114443081979</v>
+        <v>0.05276066786712454</v>
       </c>
       <c r="H93" t="b">
         <v>0</v>
-      </c>
-      <c r="I93" t="n">
-        <v>62</v>
-      </c>
-      <c r="J93" t="n">
-        <v>2460538438.197141</v>
       </c>
     </row>
     <row r="94">
@@ -3624,22 +3062,16 @@
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>2037519644.918799</v>
+        <v>2165977583.623652</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1450796600290217</v>
+        <v>0.1298291267435427</v>
       </c>
       <c r="G94" t="n">
-        <v>0.03682426616059896</v>
+        <v>0.04050864209549121</v>
       </c>
       <c r="H94" t="b">
-        <v>0</v>
-      </c>
-      <c r="I94" t="n">
-        <v>0</v>
-      </c>
-      <c r="J94" t="n">
-        <v>1018759825.726181</v>
+        <v>1</v>
       </c>
     </row>
     <row r="95">
@@ -3652,28 +3084,22 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2776748628.752595</v>
+        <v>2733886351.503059</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1305490125176492</v>
+        <v>0.1272694775412586</v>
       </c>
       <c r="G95" t="n">
-        <v>0.0342379922960073</v>
+        <v>0.03298165343690897</v>
       </c>
       <c r="H95" t="b">
-        <v>0</v>
-      </c>
-      <c r="I95" t="n">
-        <v>48</v>
-      </c>
-      <c r="J95" t="n">
-        <v>1388374330.324223</v>
+        <v>1</v>
       </c>
     </row>
     <row r="96">
@@ -3686,28 +3112,22 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>1827698371.534025</v>
+        <v>1720174866.373295</v>
       </c>
       <c r="F96" t="n">
-        <v>0.09193875795660969</v>
+        <v>0.1222689713216796</v>
       </c>
       <c r="G96" t="n">
-        <v>0.04029702738377938</v>
+        <v>0.04731525863223223</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
-      </c>
-      <c r="I96" t="n">
-        <v>0</v>
-      </c>
-      <c r="J96" t="n">
-        <v>913849191.1207666</v>
       </c>
     </row>
     <row r="97">
@@ -3726,22 +3146,16 @@
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>5066198999.867602</v>
+        <v>4710949692.182084</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1445074661588585</v>
+        <v>0.1313811900381586</v>
       </c>
       <c r="G97" t="n">
-        <v>0.0232280503551751</v>
+        <v>0.02612519602442552</v>
       </c>
       <c r="H97" t="b">
         <v>0</v>
-      </c>
-      <c r="I97" t="n">
-        <v>66</v>
-      </c>
-      <c r="J97" t="n">
-        <v>2533099642.032525</v>
       </c>
     </row>
     <row r="98">
@@ -3760,22 +3174,16 @@
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>3338942582.976656</v>
+        <v>3468729268.445739</v>
       </c>
       <c r="F98" t="n">
-        <v>0.08618468997338677</v>
+        <v>0.107937170171589</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02885276733184163</v>
+        <v>0.02794599233501021</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
-      </c>
-      <c r="I98" t="n">
-        <v>53</v>
-      </c>
-      <c r="J98" t="n">
-        <v>1669471299.142463</v>
       </c>
     </row>
     <row r="99">
@@ -3788,28 +3196,22 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2591515544.188094</v>
+        <v>3153201783.993754</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1042808260692556</v>
+        <v>0.1334141760233872</v>
       </c>
       <c r="G99" t="n">
-        <v>0.02758593817953363</v>
+        <v>0.03265673294414154</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
-      </c>
-      <c r="I99" t="n">
-        <v>62</v>
-      </c>
-      <c r="J99" t="n">
-        <v>1295757728.434381</v>
       </c>
     </row>
     <row r="100">
@@ -3822,28 +3224,22 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>3319429414.57509</v>
+        <v>3974279448.294466</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1571418695209179</v>
+        <v>0.1144077598157913</v>
       </c>
       <c r="G100" t="n">
-        <v>0.0251128435033494</v>
+        <v>0.01850659140187272</v>
       </c>
       <c r="H100" t="b">
-        <v>1</v>
-      </c>
-      <c r="I100" t="n">
-        <v>61</v>
-      </c>
-      <c r="J100" t="n">
-        <v>1659714723.601027</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101">
@@ -3856,28 +3252,22 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>3438706767.330911</v>
+        <v>2278579548.866643</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1799836730834319</v>
+        <v>0.1901229458720701</v>
       </c>
       <c r="G101" t="n">
-        <v>0.03991438898130103</v>
+        <v>0.03949418613224996</v>
       </c>
       <c r="H101" t="b">
-        <v>1</v>
-      </c>
-      <c r="I101" t="n">
-        <v>81</v>
-      </c>
-      <c r="J101" t="n">
-        <v>1719353530.682681</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/output/fit_clients/fit_round_201.xlsx
+++ b/output/fit_clients/fit_round_201.xlsx
@@ -480,19 +480,19 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>2373132157.907887</v>
+        <v>2226433029.312425</v>
       </c>
       <c r="F2" t="n">
-        <v>0.1113078559156702</v>
+        <v>0.1090743132832774</v>
       </c>
       <c r="G2" t="n">
-        <v>0.03287766714345085</v>
+        <v>0.03241188388423834</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
@@ -508,19 +508,19 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>2468011433.960882</v>
+        <v>1953637408.362165</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1501649944687411</v>
+        <v>0.1494397040275404</v>
       </c>
       <c r="G3" t="n">
-        <v>0.03694188310098079</v>
+        <v>0.03710253757171619</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
@@ -536,19 +536,19 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>4861900464.313656</v>
+        <v>4042102019.176246</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1645417915574355</v>
+        <v>0.1365859415387104</v>
       </c>
       <c r="G4" t="n">
-        <v>0.02711286996008001</v>
+        <v>0.03194487085367297</v>
       </c>
       <c r="H4" t="b">
         <v>0</v>
@@ -564,19 +564,19 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>4063677013.939701</v>
+        <v>3955091192.243744</v>
       </c>
       <c r="F5" t="n">
-        <v>0.09504610952522552</v>
+        <v>0.09848246904457184</v>
       </c>
       <c r="G5" t="n">
-        <v>0.03114946682919943</v>
+        <v>0.04159823359812637</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
@@ -592,19 +592,19 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2569336446.663494</v>
+        <v>2863918719.438486</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1369996662282272</v>
+        <v>0.1468983140211393</v>
       </c>
       <c r="G6" t="n">
-        <v>0.03644979655009492</v>
+        <v>0.05021952940529955</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
@@ -620,19 +620,19 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>3048660523.964697</v>
+        <v>2485689033.367649</v>
       </c>
       <c r="F7" t="n">
-        <v>0.07228982645070225</v>
+        <v>0.0961754033149622</v>
       </c>
       <c r="G7" t="n">
-        <v>0.04760693831416279</v>
+        <v>0.03258244367858634</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
@@ -648,19 +648,19 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>2977941491.158001</v>
+        <v>3567945650.918573</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1751991592261569</v>
+        <v>0.1578604854903828</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02708253711306349</v>
+        <v>0.02326822472369383</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
@@ -682,13 +682,13 @@
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>2227745905.778382</v>
+        <v>1620321157.298264</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1934406959939166</v>
+        <v>0.1728189546090275</v>
       </c>
       <c r="G9" t="n">
-        <v>0.03506162569588045</v>
+        <v>0.02759130097302953</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
@@ -710,13 +710,13 @@
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>4417179384.88431</v>
+        <v>4377095937.316401</v>
       </c>
       <c r="F10" t="n">
-        <v>0.154910983029945</v>
+        <v>0.1708811267885622</v>
       </c>
       <c r="G10" t="n">
-        <v>0.03959160957562315</v>
+        <v>0.04606759979538551</v>
       </c>
       <c r="H10" t="b">
         <v>1</v>
@@ -738,16 +738,16 @@
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>3178902469.411003</v>
+        <v>2866375156.408615</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1676147661594613</v>
+        <v>0.1750936031855201</v>
       </c>
       <c r="G11" t="n">
-        <v>0.04481084799959862</v>
+        <v>0.03036119014855544</v>
       </c>
       <c r="H11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -760,19 +760,19 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2280073796.988318</v>
+        <v>2253617580.116958</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1796656118296577</v>
+        <v>0.1614089750607033</v>
       </c>
       <c r="G12" t="n">
-        <v>0.04682216543094126</v>
+        <v>0.04834304318353806</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
@@ -788,22 +788,22 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>3716146854.117167</v>
+        <v>5327639242.110604</v>
       </c>
       <c r="F13" t="n">
-        <v>0.08937917778276533</v>
+        <v>0.1009190603660651</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02552902437275301</v>
+        <v>0.03028565406764664</v>
       </c>
       <c r="H13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14">
@@ -816,19 +816,19 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>2795233930.708612</v>
+        <v>2531501168.293716</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1183322080441052</v>
+        <v>0.1289516213363316</v>
       </c>
       <c r="G14" t="n">
-        <v>0.03582557957411118</v>
+        <v>0.03110481583270091</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
@@ -844,19 +844,19 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1455743998.504692</v>
+        <v>1814828025.123919</v>
       </c>
       <c r="F15" t="n">
-        <v>0.0749561891630473</v>
+        <v>0.07191211579428969</v>
       </c>
       <c r="G15" t="n">
-        <v>0.0421069388484333</v>
+        <v>0.03834661776715261</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
@@ -878,16 +878,16 @@
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2681913149.058242</v>
+        <v>2615344219.189954</v>
       </c>
       <c r="F16" t="n">
-        <v>0.1132090604273639</v>
+        <v>0.09705680228465308</v>
       </c>
       <c r="G16" t="n">
-        <v>0.03343868284722513</v>
+        <v>0.04227402756257367</v>
       </c>
       <c r="H16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -900,19 +900,19 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>4229990885.557281</v>
+        <v>3925725583.973483</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1164154576596575</v>
+        <v>0.1740049641653985</v>
       </c>
       <c r="G17" t="n">
-        <v>0.05041193367952056</v>
+        <v>0.03499702541119243</v>
       </c>
       <c r="H17" t="b">
         <v>0</v>
@@ -928,19 +928,19 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>3603879086.441517</v>
+        <v>3709608879.981161</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1290216057361298</v>
+        <v>0.1648510958051234</v>
       </c>
       <c r="G18" t="n">
-        <v>0.02807857386344037</v>
+        <v>0.021953113776236</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
@@ -956,22 +956,22 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>1367026980.597872</v>
+        <v>1310302132.862323</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1884073459986932</v>
+        <v>0.1321192913577136</v>
       </c>
       <c r="G19" t="n">
-        <v>0.02371853864916386</v>
+        <v>0.02577537621081262</v>
       </c>
       <c r="H19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -984,19 +984,19 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2701338158.388466</v>
+        <v>2228276678.5191</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1131634937771246</v>
+        <v>0.1594629628666084</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02782572078046222</v>
+        <v>0.02714085409317044</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
@@ -1012,19 +1012,19 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>1811634513.86326</v>
+        <v>2142994635.307975</v>
       </c>
       <c r="F21" t="n">
-        <v>0.09063012101902523</v>
+        <v>0.07162112637733752</v>
       </c>
       <c r="G21" t="n">
-        <v>0.02818207298224687</v>
+        <v>0.03883446256003234</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
@@ -1040,22 +1040,22 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>3132222594.605073</v>
+        <v>2496977460.980923</v>
       </c>
       <c r="F22" t="n">
-        <v>0.124097149911728</v>
+        <v>0.1087447893879455</v>
       </c>
       <c r="G22" t="n">
-        <v>0.04130750791110991</v>
+        <v>0.05020985390494447</v>
       </c>
       <c r="H22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -1068,19 +1068,19 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1111201664.53589</v>
+        <v>1191537886.831323</v>
       </c>
       <c r="F23" t="n">
-        <v>0.184761670767205</v>
+        <v>0.1570932520113294</v>
       </c>
       <c r="G23" t="n">
-        <v>0.0382651396265648</v>
+        <v>0.04853213607149908</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
@@ -1096,22 +1096,22 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>3325896542.522398</v>
+        <v>3366469656.575978</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1329721229652916</v>
+        <v>0.09254943071805737</v>
       </c>
       <c r="G24" t="n">
-        <v>0.03668838166641493</v>
+        <v>0.03061097246750333</v>
       </c>
       <c r="H24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25">
@@ -1130,13 +1130,13 @@
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>980520934.361979</v>
+        <v>1398092112.550176</v>
       </c>
       <c r="F25" t="n">
-        <v>0.1116198248205389</v>
+        <v>0.09434469575109718</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02455849460226859</v>
+        <v>0.01923838501320112</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
@@ -1152,19 +1152,19 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1126896463.579423</v>
+        <v>1214947033.031385</v>
       </c>
       <c r="F26" t="n">
-        <v>0.09077943149827639</v>
+        <v>0.0914888746908858</v>
       </c>
       <c r="G26" t="n">
-        <v>0.03100818773783817</v>
+        <v>0.02353538573646295</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
@@ -1180,22 +1180,22 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>4651593512.835608</v>
+        <v>4549135119.079382</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1570113069449585</v>
+        <v>0.103875835898872</v>
       </c>
       <c r="G27" t="n">
-        <v>0.01876463110577189</v>
+        <v>0.02275404612662701</v>
       </c>
       <c r="H27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28">
@@ -1208,19 +1208,19 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>3598479679.661384</v>
+        <v>3210755244.007071</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1394123166550171</v>
+        <v>0.1280061666496602</v>
       </c>
       <c r="G28" t="n">
-        <v>0.04104376349400938</v>
+        <v>0.03130132936901706</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
@@ -1236,22 +1236,22 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>4497261057.548135</v>
+        <v>5855755763.600196</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1307776595806882</v>
+        <v>0.1339778493731338</v>
       </c>
       <c r="G29" t="n">
-        <v>0.0415689780487264</v>
+        <v>0.03764417523657613</v>
       </c>
       <c r="H29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30">
@@ -1264,19 +1264,19 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>2197401418.300923</v>
+        <v>2314242578.825925</v>
       </c>
       <c r="F30" t="n">
-        <v>0.09064731610622122</v>
+        <v>0.09003249344107399</v>
       </c>
       <c r="G30" t="n">
-        <v>0.03127011274442065</v>
+        <v>0.03468465599151058</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
@@ -1298,13 +1298,13 @@
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1447205032.226497</v>
+        <v>1290240005.219856</v>
       </c>
       <c r="F31" t="n">
-        <v>0.08991424415532885</v>
+        <v>0.1106142402941928</v>
       </c>
       <c r="G31" t="n">
-        <v>0.05179242540370793</v>
+        <v>0.04257361860394047</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
@@ -1326,16 +1326,16 @@
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1286376557.243756</v>
+        <v>1476626074.540457</v>
       </c>
       <c r="F32" t="n">
-        <v>0.1046371490251639</v>
+        <v>0.0743118702008395</v>
       </c>
       <c r="G32" t="n">
-        <v>0.02373671404449295</v>
+        <v>0.02337920284463957</v>
       </c>
       <c r="H32" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -1354,13 +1354,13 @@
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>3065809340.745719</v>
+        <v>2986946732.300681</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1577415153843953</v>
+        <v>0.1461073211770566</v>
       </c>
       <c r="G33" t="n">
-        <v>0.03705885078355273</v>
+        <v>0.04186854132260865</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
@@ -1376,19 +1376,19 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1195708343.861196</v>
+        <v>1561319926.801887</v>
       </c>
       <c r="F34" t="n">
-        <v>0.0757743204308832</v>
+        <v>0.09331770374651609</v>
       </c>
       <c r="G34" t="n">
-        <v>0.02588072386291303</v>
+        <v>0.02315805300663803</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
@@ -1404,19 +1404,19 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>1232917907.186184</v>
+        <v>929300188.6079636</v>
       </c>
       <c r="F35" t="n">
-        <v>0.07572763047250237</v>
+        <v>0.1071738530806651</v>
       </c>
       <c r="G35" t="n">
-        <v>0.04485877803343173</v>
+        <v>0.04519703259692317</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
@@ -1432,19 +1432,19 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2072637743.74575</v>
+        <v>2780873350.422831</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1578286880682083</v>
+        <v>0.1646892454132162</v>
       </c>
       <c r="G36" t="n">
-        <v>0.0211615314255528</v>
+        <v>0.01765621216805354</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
@@ -1460,19 +1460,19 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2801503494.491054</v>
+        <v>2380744873.633724</v>
       </c>
       <c r="F37" t="n">
-        <v>0.09391034353754578</v>
+        <v>0.1013073220215462</v>
       </c>
       <c r="G37" t="n">
-        <v>0.03919905038928238</v>
+        <v>0.04086855986707646</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
@@ -1488,19 +1488,19 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1779493525.528656</v>
+        <v>2032842881.918861</v>
       </c>
       <c r="F38" t="n">
-        <v>0.0770672526024069</v>
+        <v>0.07582366296669324</v>
       </c>
       <c r="G38" t="n">
-        <v>0.02773830896227503</v>
+        <v>0.03055309887969834</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
@@ -1516,22 +1516,22 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1511019490.986879</v>
+        <v>1818515140.550658</v>
       </c>
       <c r="F39" t="n">
-        <v>0.126820537821696</v>
+        <v>0.185875897216006</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02589156776346523</v>
+        <v>0.02344970326332806</v>
       </c>
       <c r="H39" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -1550,13 +1550,13 @@
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1511132416.023205</v>
+        <v>1463619585.566526</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1140712706602949</v>
+        <v>0.1256672208850954</v>
       </c>
       <c r="G40" t="n">
-        <v>0.04396982388734712</v>
+        <v>0.0580433943721697</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
@@ -1578,13 +1578,13 @@
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2363282508.401443</v>
+        <v>1869199523.053709</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1113007445205609</v>
+        <v>0.1477789468108894</v>
       </c>
       <c r="G41" t="n">
-        <v>0.03015182106935189</v>
+        <v>0.03954322203186433</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
@@ -1606,13 +1606,13 @@
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>3988981909.080534</v>
+        <v>3041005702.32551</v>
       </c>
       <c r="F42" t="n">
-        <v>0.1208953286259037</v>
+        <v>0.08421794772977113</v>
       </c>
       <c r="G42" t="n">
-        <v>0.04293009555854756</v>
+        <v>0.03681466389965374</v>
       </c>
       <c r="H42" t="b">
         <v>0</v>
@@ -1628,22 +1628,22 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>1912049049.540293</v>
+        <v>1862435977.101296</v>
       </c>
       <c r="F43" t="n">
-        <v>0.140092141329903</v>
+        <v>0.1369031898898838</v>
       </c>
       <c r="G43" t="n">
-        <v>0.01956787144174325</v>
+        <v>0.0192050483651278</v>
       </c>
       <c r="H43" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -1656,19 +1656,19 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>1978011155.903968</v>
+        <v>1930657136.518459</v>
       </c>
       <c r="F44" t="n">
-        <v>0.07547681547722966</v>
+        <v>0.066146930078086</v>
       </c>
       <c r="G44" t="n">
-        <v>0.03487453574684115</v>
+        <v>0.02549563556034339</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
@@ -1684,19 +1684,19 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>2037761774.482733</v>
+        <v>1666256379.749454</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1685693655694889</v>
+        <v>0.1360492769627104</v>
       </c>
       <c r="G45" t="n">
-        <v>0.05605114935933541</v>
+        <v>0.03544646490494251</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
@@ -1712,22 +1712,22 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>3842858358.651536</v>
+        <v>5028439654.920194</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1566870040798052</v>
+        <v>0.1547172717414714</v>
       </c>
       <c r="G46" t="n">
-        <v>0.04464865177499198</v>
+        <v>0.04079651031625946</v>
       </c>
       <c r="H46" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47">
@@ -1740,22 +1740,22 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>3929848189.937443</v>
+        <v>4721249447.196617</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1390184658256381</v>
+        <v>0.1751866868352815</v>
       </c>
       <c r="G47" t="n">
-        <v>0.04852940769310013</v>
+        <v>0.042447962090757</v>
       </c>
       <c r="H47" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48">
@@ -1768,19 +1768,19 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>4548680876.702453</v>
+        <v>3734334318.553784</v>
       </c>
       <c r="F48" t="n">
-        <v>0.08595604666010971</v>
+        <v>0.07160636796680471</v>
       </c>
       <c r="G48" t="n">
-        <v>0.03721900026023811</v>
+        <v>0.03072404254144359</v>
       </c>
       <c r="H48" t="b">
         <v>0</v>
@@ -1796,22 +1796,22 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1531200344.133934</v>
+        <v>1200395125.098125</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1722319789205527</v>
+        <v>0.1614977395859647</v>
       </c>
       <c r="G49" t="n">
-        <v>0.03001150826575211</v>
+        <v>0.04366260905574229</v>
       </c>
       <c r="H49" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50">
@@ -1830,13 +1830,13 @@
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>3166250954.04364</v>
+        <v>2735808541.74829</v>
       </c>
       <c r="F50" t="n">
-        <v>0.11894140305398</v>
+        <v>0.1660768414433925</v>
       </c>
       <c r="G50" t="n">
-        <v>0.05332289147521035</v>
+        <v>0.05037927326050315</v>
       </c>
       <c r="H50" t="b">
         <v>0</v>
@@ -1858,16 +1858,16 @@
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1521601634.606313</v>
+        <v>959158848.668676</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1483464527077868</v>
+        <v>0.1710979920513072</v>
       </c>
       <c r="G51" t="n">
-        <v>0.0517246447910779</v>
+        <v>0.04926778391383935</v>
       </c>
       <c r="H51" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52">
@@ -1880,19 +1880,19 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>3831700585.489198</v>
+        <v>4582647544.453905</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1288055777803189</v>
+        <v>0.1308309171443383</v>
       </c>
       <c r="G52" t="n">
-        <v>0.04363355623970062</v>
+        <v>0.04875494920521067</v>
       </c>
       <c r="H52" t="b">
         <v>0</v>
@@ -1914,13 +1914,13 @@
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>3378307635.172528</v>
+        <v>3441392524.307415</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1631467220842276</v>
+        <v>0.2012595863798602</v>
       </c>
       <c r="G53" t="n">
-        <v>0.02478883815558242</v>
+        <v>0.03545468806162638</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
@@ -1942,16 +1942,16 @@
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>4108560960.688354</v>
+        <v>4907819092.072505</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1606179603555567</v>
+        <v>0.1628211223186453</v>
       </c>
       <c r="G54" t="n">
-        <v>0.03197917272965398</v>
+        <v>0.03331254784002056</v>
       </c>
       <c r="H54" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55">
@@ -1964,22 +1964,22 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>4273509443.544699</v>
+        <v>4062560530.407282</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1599547899744851</v>
+        <v>0.2232224197268819</v>
       </c>
       <c r="G55" t="n">
-        <v>0.0209628607019566</v>
+        <v>0.02306927600648497</v>
       </c>
       <c r="H55" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56">
@@ -1998,16 +1998,16 @@
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1650793198.7036</v>
+        <v>1683359541.077962</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1198170963692054</v>
+        <v>0.1141333290016939</v>
       </c>
       <c r="G56" t="n">
-        <v>0.04444605061727202</v>
+        <v>0.0446848729032876</v>
       </c>
       <c r="H56" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57">
@@ -2020,22 +2020,22 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>4369707919.53734</v>
+        <v>3914997317.476925</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1388663789565697</v>
+        <v>0.1710494912623225</v>
       </c>
       <c r="G57" t="n">
-        <v>0.01983520304311757</v>
+        <v>0.02475286598080142</v>
       </c>
       <c r="H57" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58">
@@ -2054,13 +2054,13 @@
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1279706754.262158</v>
+        <v>1442618239.812113</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1558687407564872</v>
+        <v>0.1420977099196621</v>
       </c>
       <c r="G58" t="n">
-        <v>0.03423941376139867</v>
+        <v>0.02988794657126951</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
@@ -2076,19 +2076,19 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>4281465544.084528</v>
+        <v>3791274794.242288</v>
       </c>
       <c r="F59" t="n">
-        <v>0.09738840786415351</v>
+        <v>0.1176104999421887</v>
       </c>
       <c r="G59" t="n">
-        <v>0.04788655393836261</v>
+        <v>0.03933631881986594</v>
       </c>
       <c r="H59" t="b">
         <v>0</v>
@@ -2110,13 +2110,13 @@
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>3310753829.400457</v>
+        <v>2861675344.712586</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1799582425351322</v>
+        <v>0.2063924008082545</v>
       </c>
       <c r="G60" t="n">
-        <v>0.03279682289066237</v>
+        <v>0.03272854900978351</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
@@ -2132,19 +2132,19 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>2491840709.728008</v>
+        <v>3201036658.099542</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1429419995121413</v>
+        <v>0.1256642125441793</v>
       </c>
       <c r="G61" t="n">
-        <v>0.03298449280625722</v>
+        <v>0.03265538573418697</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
@@ -2166,13 +2166,13 @@
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>2011226957.432401</v>
+        <v>1774175765.535237</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1248275442430452</v>
+        <v>0.1496975901525357</v>
       </c>
       <c r="G62" t="n">
-        <v>0.03097865865434392</v>
+        <v>0.04745949533867494</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
@@ -2188,19 +2188,19 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>3480743891.592856</v>
+        <v>4050049376.268507</v>
       </c>
       <c r="F63" t="n">
-        <v>0.08403477745398252</v>
+        <v>0.07696904286387891</v>
       </c>
       <c r="G63" t="n">
-        <v>0.03031547049420761</v>
+        <v>0.04003298171643985</v>
       </c>
       <c r="H63" t="b">
         <v>1</v>
@@ -2216,22 +2216,22 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>4618069791.756831</v>
+        <v>4883362505.665928</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1631753251053052</v>
+        <v>0.137369965808213</v>
       </c>
       <c r="G64" t="n">
-        <v>0.02221265013497049</v>
+        <v>0.03441433019330986</v>
       </c>
       <c r="H64" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65">
@@ -2250,13 +2250,13 @@
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>4167567804.31069</v>
+        <v>3862695992.49225</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1340628836680925</v>
+        <v>0.1062703149359791</v>
       </c>
       <c r="G65" t="n">
-        <v>0.03219497598677088</v>
+        <v>0.02056244092154946</v>
       </c>
       <c r="H65" t="b">
         <v>1</v>
@@ -2272,22 +2272,22 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>4696749878.227094</v>
+        <v>4517375892.875995</v>
       </c>
       <c r="F66" t="n">
-        <v>0.124272061815064</v>
+        <v>0.1192958934973626</v>
       </c>
       <c r="G66" t="n">
-        <v>0.03767924028017019</v>
+        <v>0.05066858591708678</v>
       </c>
       <c r="H66" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67">
@@ -2306,16 +2306,16 @@
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>2131472231.87331</v>
+        <v>2163885349.176383</v>
       </c>
       <c r="F67" t="n">
-        <v>0.09648526263960461</v>
+        <v>0.06273556525696122</v>
       </c>
       <c r="G67" t="n">
-        <v>0.04939713193121043</v>
+        <v>0.03810547244810016</v>
       </c>
       <c r="H67" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68">
@@ -2328,22 +2328,22 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>5970672347.136566</v>
+        <v>5759247095.920683</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1422826690528648</v>
+        <v>0.1337160538355001</v>
       </c>
       <c r="G68" t="n">
-        <v>0.0380192285240367</v>
+        <v>0.04644543776053295</v>
       </c>
       <c r="H68" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69">
@@ -2356,19 +2356,19 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>2305164244.543092</v>
+        <v>2490361748.334868</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1541762572794083</v>
+        <v>0.1191104611269271</v>
       </c>
       <c r="G69" t="n">
-        <v>0.04665258230633133</v>
+        <v>0.04905431817815804</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
@@ -2384,19 +2384,19 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>2934546585.466321</v>
+        <v>2668845557.126156</v>
       </c>
       <c r="F70" t="n">
-        <v>0.09115120092962467</v>
+        <v>0.1026216310641031</v>
       </c>
       <c r="G70" t="n">
-        <v>0.04912519867321458</v>
+        <v>0.04507777396671058</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
@@ -2412,22 +2412,22 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>4290957407.402531</v>
+        <v>5559418242.10618</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1333955094479859</v>
+        <v>0.1608022406269764</v>
       </c>
       <c r="G71" t="n">
-        <v>0.02687768082356284</v>
+        <v>0.03331267820074739</v>
       </c>
       <c r="H71" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72">
@@ -2440,19 +2440,19 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>2272992641.631531</v>
+        <v>2196924323.499831</v>
       </c>
       <c r="F72" t="n">
-        <v>0.07855926784369141</v>
+        <v>0.08191063596153973</v>
       </c>
       <c r="G72" t="n">
-        <v>0.04880006709065686</v>
+        <v>0.04283144154617123</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
@@ -2474,13 +2474,13 @@
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>2960816121.867244</v>
+        <v>2602896369.325387</v>
       </c>
       <c r="F73" t="n">
-        <v>0.1071862421270706</v>
+        <v>0.07192424509769255</v>
       </c>
       <c r="G73" t="n">
-        <v>0.04857215012951194</v>
+        <v>0.03855379471500196</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
@@ -2502,13 +2502,13 @@
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>2787976241.929595</v>
+        <v>3249418275.701633</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1775424025427153</v>
+        <v>0.1833515795300729</v>
       </c>
       <c r="G74" t="n">
-        <v>0.02411491546979499</v>
+        <v>0.02421411179564977</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
@@ -2524,19 +2524,19 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>1977961539.757252</v>
+        <v>2223579090.873064</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1539743552964815</v>
+        <v>0.1483216514832102</v>
       </c>
       <c r="G75" t="n">
-        <v>0.03181791952947439</v>
+        <v>0.0250905389702693</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
@@ -2558,16 +2558,16 @@
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>4451180156.5304</v>
+        <v>4756934748.068123</v>
       </c>
       <c r="F76" t="n">
-        <v>0.07776962631085739</v>
+        <v>0.08801539071007959</v>
       </c>
       <c r="G76" t="n">
-        <v>0.03365706491006525</v>
+        <v>0.02900668566202688</v>
       </c>
       <c r="H76" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="77">
@@ -2586,13 +2586,13 @@
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>1394495991.793523</v>
+        <v>1962343558.60818</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1177211421366422</v>
+        <v>0.1715273891297866</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02356297722471974</v>
+        <v>0.02490888175095746</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
@@ -2608,22 +2608,22 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>4579899578.743483</v>
+        <v>3908542432.296711</v>
       </c>
       <c r="F78" t="n">
-        <v>0.1090854158614346</v>
+        <v>0.08921022731963213</v>
       </c>
       <c r="G78" t="n">
-        <v>0.04400185114616048</v>
+        <v>0.04275649425070461</v>
       </c>
       <c r="H78" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="79">
@@ -2636,22 +2636,22 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1422766788.006353</v>
+        <v>1362658390.063139</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1093282522367007</v>
+        <v>0.1342460443533704</v>
       </c>
       <c r="G79" t="n">
-        <v>0.03803830352808917</v>
+        <v>0.0335582597307767</v>
       </c>
       <c r="H79" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="80">
@@ -2664,22 +2664,22 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>5372756095.646259</v>
+        <v>3563162502.529353</v>
       </c>
       <c r="F80" t="n">
-        <v>0.1022757994278495</v>
+        <v>0.09251339641512649</v>
       </c>
       <c r="G80" t="n">
-        <v>0.03630822899562041</v>
+        <v>0.02816449067073936</v>
       </c>
       <c r="H80" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="81">
@@ -2698,16 +2698,16 @@
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>3800481081.522007</v>
+        <v>5107716359.446532</v>
       </c>
       <c r="F81" t="n">
-        <v>0.1042459266002866</v>
+        <v>0.115751790854606</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02625662728759769</v>
+        <v>0.02727895349987433</v>
       </c>
       <c r="H81" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82">
@@ -2720,19 +2720,19 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>4349836389.624978</v>
+        <v>3584965010.258063</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1847458430100462</v>
+        <v>0.1808912208199895</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02738775807977271</v>
+        <v>0.01979159377410697</v>
       </c>
       <c r="H82" t="b">
         <v>0</v>
@@ -2754,13 +2754,13 @@
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>2143456122.678741</v>
+        <v>1942512419.990991</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1533541118847996</v>
+        <v>0.1017187768702028</v>
       </c>
       <c r="G83" t="n">
-        <v>0.03870860439214902</v>
+        <v>0.03793763547539805</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
@@ -2776,19 +2776,19 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>1944700666.504834</v>
+        <v>2446523185.940397</v>
       </c>
       <c r="F84" t="n">
-        <v>0.1027663556491942</v>
+        <v>0.07544301969799824</v>
       </c>
       <c r="G84" t="n">
-        <v>0.05125764772574597</v>
+        <v>0.0326799499757712</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
@@ -2804,19 +2804,19 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>3150827985.786199</v>
+        <v>2476646072.60434</v>
       </c>
       <c r="F85" t="n">
-        <v>0.161342502737043</v>
+        <v>0.1526978996864287</v>
       </c>
       <c r="G85" t="n">
-        <v>0.04137349950713713</v>
+        <v>0.04068020351052786</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
@@ -2838,13 +2838,13 @@
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2324413029.28059</v>
+        <v>2227040445.835217</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1555313375369966</v>
+        <v>0.1364955635926724</v>
       </c>
       <c r="G86" t="n">
-        <v>0.0165792753730864</v>
+        <v>0.02261188635606557</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
@@ -2860,19 +2860,19 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1353921835.007592</v>
+        <v>1481710023.748093</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1373813917705479</v>
+        <v>0.1163226487537388</v>
       </c>
       <c r="G87" t="n">
-        <v>0.03868526156872443</v>
+        <v>0.03359473467737839</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
@@ -2888,19 +2888,19 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>2637325052.92412</v>
+        <v>2301033069.379285</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1351610624615779</v>
+        <v>0.1556557086551286</v>
       </c>
       <c r="G88" t="n">
-        <v>0.03987296526352126</v>
+        <v>0.03381283791508394</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
@@ -2922,16 +2922,16 @@
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>2714627989.720348</v>
+        <v>3114186088.196381</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1525225864641112</v>
+        <v>0.1371191776188813</v>
       </c>
       <c r="G89" t="n">
-        <v>0.0376264415595693</v>
+        <v>0.03722920663815464</v>
       </c>
       <c r="H89" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90">
@@ -2950,13 +2950,13 @@
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1699277044.362093</v>
+        <v>1684346741.216941</v>
       </c>
       <c r="F90" t="n">
-        <v>0.09879996849419632</v>
+        <v>0.1102609966925405</v>
       </c>
       <c r="G90" t="n">
-        <v>0.05216744457863019</v>
+        <v>0.04573464923603093</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
@@ -2972,19 +2972,19 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>2076434126.430049</v>
+        <v>1728329553.403578</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1264242739339551</v>
+        <v>0.1404842361823978</v>
       </c>
       <c r="G91" t="n">
-        <v>0.05020707306658613</v>
+        <v>0.04445098463493093</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
@@ -3006,13 +3006,13 @@
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2114386649.014352</v>
+        <v>1923488327.999182</v>
       </c>
       <c r="F92" t="n">
-        <v>0.1087062753646059</v>
+        <v>0.1052011796248134</v>
       </c>
       <c r="G92" t="n">
-        <v>0.03873594240696655</v>
+        <v>0.04460684808421359</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
@@ -3028,22 +3028,22 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>4031462897.197011</v>
+        <v>3498858412.666111</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1316081619416075</v>
+        <v>0.1125527464757843</v>
       </c>
       <c r="G93" t="n">
-        <v>0.05276066786712454</v>
+        <v>0.04908134480232912</v>
       </c>
       <c r="H93" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="94">
@@ -3056,22 +3056,22 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>2165977583.623652</v>
+        <v>2080655881.023738</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1298291267435427</v>
+        <v>0.119510838441772</v>
       </c>
       <c r="G94" t="n">
-        <v>0.04050864209549121</v>
+        <v>0.03621233576702138</v>
       </c>
       <c r="H94" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="95">
@@ -3090,16 +3090,16 @@
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2733886351.503059</v>
+        <v>3200614786.743782</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1272694775412586</v>
+        <v>0.134441386491089</v>
       </c>
       <c r="G95" t="n">
-        <v>0.03298165343690897</v>
+        <v>0.04879178985948209</v>
       </c>
       <c r="H95" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="96">
@@ -3112,19 +3112,19 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>1720174866.373295</v>
+        <v>2249404843.002951</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1222689713216796</v>
+        <v>0.09468227990231491</v>
       </c>
       <c r="G96" t="n">
-        <v>0.04731525863223223</v>
+        <v>0.03270430236014864</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
@@ -3140,22 +3140,22 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>4710949692.182084</v>
+        <v>5265175488.365528</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1313811900381586</v>
+        <v>0.1513669048382783</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02612519602442552</v>
+        <v>0.0249559593481609</v>
       </c>
       <c r="H97" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="98">
@@ -3174,13 +3174,13 @@
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>3468729268.445739</v>
+        <v>3829785111.080195</v>
       </c>
       <c r="F98" t="n">
-        <v>0.107937170171589</v>
+        <v>0.1033610477391057</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02794599233501021</v>
+        <v>0.02984849781408265</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
@@ -3202,13 +3202,13 @@
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>3153201783.993754</v>
+        <v>3123442542.976476</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1334141760233872</v>
+        <v>0.1481302436148288</v>
       </c>
       <c r="G99" t="n">
-        <v>0.03265673294414154</v>
+        <v>0.02575475028744657</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
@@ -3224,19 +3224,19 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>3974279448.294466</v>
+        <v>4581002324.172521</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1144077598157913</v>
+        <v>0.177667720344491</v>
       </c>
       <c r="G100" t="n">
-        <v>0.01850659140187272</v>
+        <v>0.02470450480815084</v>
       </c>
       <c r="H100" t="b">
         <v>0</v>
@@ -3252,19 +3252,19 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>2278579548.866643</v>
+        <v>3469950913.881329</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1901229458720701</v>
+        <v>0.1779213961110827</v>
       </c>
       <c r="G101" t="n">
-        <v>0.03949418613224996</v>
+        <v>0.03568191903357278</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>

--- a/output/fit_clients/fit_round_201.xlsx
+++ b/output/fit_clients/fit_round_201.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H101"/>
+  <dimension ref="A1:K101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,6 +469,21 @@
           <t>isSelected</t>
         </is>
       </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>involvement_history</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>last_involving_round</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>oort_utility</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -480,23 +495,30 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>2226433029.312425</v>
+        <v>2085318079.964184</v>
       </c>
       <c r="F2" t="n">
-        <v>0.1090743132832774</v>
+        <v>0.08793091439023691</v>
       </c>
       <c r="G2" t="n">
-        <v>0.03241188388423834</v>
+        <v>0.02899207064515157</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
       </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -514,17 +536,24 @@
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>1953637408.362165</v>
+        <v>1751543820.166016</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1494397040275404</v>
+        <v>0.146333032067537</v>
       </c>
       <c r="G3" t="n">
-        <v>0.03710253757171619</v>
+        <v>0.04001659321548452</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
       </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -536,23 +565,30 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>4042102019.176246</v>
+        <v>4852480629.328403</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1365859415387104</v>
+        <v>0.1505161437176641</v>
       </c>
       <c r="G4" t="n">
-        <v>0.03194487085367297</v>
+        <v>0.03208206047750025</v>
       </c>
       <c r="H4" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I4" t="n">
+        <v>110</v>
+      </c>
+      <c r="J4" t="n">
+        <v>201</v>
+      </c>
+      <c r="K4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -564,23 +600,30 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>3955091192.243744</v>
+        <v>2657782562.565579</v>
       </c>
       <c r="F5" t="n">
-        <v>0.09848246904457184</v>
+        <v>0.07458457010706974</v>
       </c>
       <c r="G5" t="n">
-        <v>0.04159823359812637</v>
+        <v>0.03292642897183329</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
       </c>
+      <c r="I5" t="n">
+        <v>84</v>
+      </c>
+      <c r="J5" t="n">
+        <v>199</v>
+      </c>
+      <c r="K5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -592,23 +635,30 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2863918719.438486</v>
+        <v>2085145507.445878</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1468983140211393</v>
+        <v>0.1287499417728434</v>
       </c>
       <c r="G6" t="n">
-        <v>0.05021952940529955</v>
+        <v>0.03445690850779707</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
       </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -620,23 +670,30 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2485689033.367649</v>
+        <v>2226293029.709832</v>
       </c>
       <c r="F7" t="n">
-        <v>0.0961754033149622</v>
+        <v>0.1014301955208454</v>
       </c>
       <c r="G7" t="n">
-        <v>0.03258244367858634</v>
+        <v>0.03671282374342698</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
       </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -648,23 +705,30 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>3567945650.918573</v>
+        <v>3576193235.20087</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1578604854903828</v>
+        <v>0.1429530261269073</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02326822472369383</v>
+        <v>0.02946597229630948</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
       </c>
+      <c r="I8" t="n">
+        <v>57</v>
+      </c>
+      <c r="J8" t="n">
+        <v>199</v>
+      </c>
+      <c r="K8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -676,23 +740,30 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>1620321157.298264</v>
+        <v>2183716101.52065</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1728189546090275</v>
+        <v>0.1537571357999641</v>
       </c>
       <c r="G9" t="n">
-        <v>0.02759130097302953</v>
+        <v>0.02955484528111535</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
       </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -704,22 +775,31 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>4377095937.316401</v>
+        <v>4868801031.262583</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1708811267885622</v>
+        <v>0.1501875370739862</v>
       </c>
       <c r="G10" t="n">
-        <v>0.04606759979538551</v>
+        <v>0.0343570137000357</v>
       </c>
       <c r="H10" t="b">
         <v>1</v>
+      </c>
+      <c r="I10" t="n">
+        <v>184</v>
+      </c>
+      <c r="J10" t="n">
+        <v>201</v>
+      </c>
+      <c r="K10" t="n">
+        <v>129.1664092484471</v>
       </c>
     </row>
     <row r="11">
@@ -732,22 +812,31 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>2866375156.408615</v>
+        <v>3103793686.383049</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1750936031855201</v>
+        <v>0.1297018883659371</v>
       </c>
       <c r="G11" t="n">
-        <v>0.03036119014855544</v>
+        <v>0.03510394087419151</v>
       </c>
       <c r="H11" t="b">
         <v>0</v>
+      </c>
+      <c r="I11" t="n">
+        <v>83</v>
+      </c>
+      <c r="J11" t="n">
+        <v>200</v>
+      </c>
+      <c r="K11" t="n">
+        <v>58.12800255453163</v>
       </c>
     </row>
     <row r="12">
@@ -760,23 +849,30 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2253617580.116958</v>
+        <v>3167691042.457556</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1614089750607033</v>
+        <v>0.1617898784671618</v>
       </c>
       <c r="G12" t="n">
-        <v>0.04834304318353806</v>
+        <v>0.05120598150621594</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
       </c>
+      <c r="I12" t="n">
+        <v>1</v>
+      </c>
+      <c r="J12" t="n">
+        <v>144</v>
+      </c>
+      <c r="K12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -788,23 +884,30 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>5327639242.110604</v>
+        <v>4978079459.096421</v>
       </c>
       <c r="F13" t="n">
-        <v>0.1009190603660651</v>
+        <v>0.07318069167051243</v>
       </c>
       <c r="G13" t="n">
-        <v>0.03028565406764664</v>
+        <v>0.01918690130549946</v>
       </c>
       <c r="H13" t="b">
         <v>1</v>
       </c>
+      <c r="I13" t="n">
+        <v>100</v>
+      </c>
+      <c r="J13" t="n">
+        <v>201</v>
+      </c>
+      <c r="K13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -816,23 +919,30 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>2531501168.293716</v>
+        <v>3770667239.107522</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1289516213363316</v>
+        <v>0.1697673407098292</v>
       </c>
       <c r="G14" t="n">
-        <v>0.03110481583270091</v>
+        <v>0.02849996064305798</v>
       </c>
       <c r="H14" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I14" t="n">
+        <v>38</v>
+      </c>
+      <c r="J14" t="n">
+        <v>201</v>
+      </c>
+      <c r="K14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -844,23 +954,30 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1814828025.123919</v>
+        <v>1599481254.63826</v>
       </c>
       <c r="F15" t="n">
-        <v>0.07191211579428969</v>
+        <v>0.07848328024094063</v>
       </c>
       <c r="G15" t="n">
-        <v>0.03834661776715261</v>
+        <v>0.04186975590909551</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
       </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -872,23 +989,30 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2615344219.189954</v>
+        <v>1791869880.695263</v>
       </c>
       <c r="F16" t="n">
-        <v>0.09705680228465308</v>
+        <v>0.07378042727725947</v>
       </c>
       <c r="G16" t="n">
-        <v>0.04227402756257367</v>
+        <v>0.05077602854082178</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
       </c>
+      <c r="I16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -900,23 +1024,30 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>3925725583.973483</v>
+        <v>4426520842.676291</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1740049641653985</v>
+        <v>0.1543805114610466</v>
       </c>
       <c r="G17" t="n">
-        <v>0.03499702541119243</v>
+        <v>0.04695333956681406</v>
       </c>
       <c r="H17" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I17" t="n">
+        <v>96</v>
+      </c>
+      <c r="J17" t="n">
+        <v>201</v>
+      </c>
+      <c r="K17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -934,17 +1065,24 @@
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>3709608879.981161</v>
+        <v>3848934959.390509</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1648510958051234</v>
+        <v>0.1625411773211252</v>
       </c>
       <c r="G18" t="n">
-        <v>0.021953113776236</v>
+        <v>0.0213650627750026</v>
       </c>
       <c r="H18" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I18" t="n">
+        <v>51</v>
+      </c>
+      <c r="J18" t="n">
+        <v>201</v>
+      </c>
+      <c r="K18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -956,23 +1094,30 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>1310302132.862323</v>
+        <v>893383567.1014111</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1321192913577136</v>
+        <v>0.178922508923461</v>
       </c>
       <c r="G19" t="n">
-        <v>0.02577537621081262</v>
+        <v>0.02233124983651756</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
       </c>
+      <c r="I19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -990,17 +1135,24 @@
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2228276678.5191</v>
+        <v>2550785354.602654</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1594629628666084</v>
+        <v>0.1289301993738204</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02714085409317044</v>
+        <v>0.0257583129959456</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
       </c>
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1012,23 +1164,30 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>2142994635.307975</v>
+        <v>2291645574.727595</v>
       </c>
       <c r="F21" t="n">
-        <v>0.07162112637733752</v>
+        <v>0.06529890059428391</v>
       </c>
       <c r="G21" t="n">
-        <v>0.03883446256003234</v>
+        <v>0.04242008015272573</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
       </c>
+      <c r="I21" t="n">
+        <v>0</v>
+      </c>
+      <c r="J21" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1040,23 +1199,30 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>2496977460.980923</v>
+        <v>3037903864.545341</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1087447893879455</v>
+        <v>0.1449996764858502</v>
       </c>
       <c r="G22" t="n">
-        <v>0.05020985390494447</v>
+        <v>0.04865640960961468</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
       </c>
+      <c r="I22" t="n">
+        <v>51</v>
+      </c>
+      <c r="J22" t="n">
+        <v>198</v>
+      </c>
+      <c r="K22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1074,17 +1240,24 @@
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1191537886.831323</v>
+        <v>1122623953.432043</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1570932520113294</v>
+        <v>0.1467170219265977</v>
       </c>
       <c r="G23" t="n">
-        <v>0.04853213607149908</v>
+        <v>0.03706735121582595</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
       </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1096,23 +1269,30 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>3366469656.575978</v>
+        <v>3763183880.302065</v>
       </c>
       <c r="F24" t="n">
-        <v>0.09254943071805737</v>
+        <v>0.1494129400746479</v>
       </c>
       <c r="G24" t="n">
-        <v>0.03061097246750333</v>
+        <v>0.03148932840405452</v>
       </c>
       <c r="H24" t="b">
         <v>1</v>
       </c>
+      <c r="I24" t="n">
+        <v>62</v>
+      </c>
+      <c r="J24" t="n">
+        <v>201</v>
+      </c>
+      <c r="K24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1124,23 +1304,30 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1398092112.550176</v>
+        <v>1301039759.186057</v>
       </c>
       <c r="F25" t="n">
-        <v>0.09434469575109718</v>
+        <v>0.07704635094334741</v>
       </c>
       <c r="G25" t="n">
-        <v>0.01923838501320112</v>
+        <v>0.02846563100884373</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
       </c>
+      <c r="I25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1152,23 +1339,30 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1214947033.031385</v>
+        <v>1196263710.907538</v>
       </c>
       <c r="F26" t="n">
-        <v>0.0914888746908858</v>
+        <v>0.1200634462055561</v>
       </c>
       <c r="G26" t="n">
-        <v>0.02353538573646295</v>
+        <v>0.02676907804667673</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
       </c>
+      <c r="I26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1180,23 +1374,30 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>4549135119.079382</v>
+        <v>4365554645.548625</v>
       </c>
       <c r="F27" t="n">
-        <v>0.103875835898872</v>
+        <v>0.1572540511437216</v>
       </c>
       <c r="G27" t="n">
-        <v>0.02275404612662701</v>
+        <v>0.02322787024974541</v>
       </c>
       <c r="H27" t="b">
         <v>1</v>
       </c>
+      <c r="I27" t="n">
+        <v>79</v>
+      </c>
+      <c r="J27" t="n">
+        <v>201</v>
+      </c>
+      <c r="K27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1208,23 +1409,30 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>3210755244.007071</v>
+        <v>3844478837.402113</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1280061666496602</v>
+        <v>0.09871985108999691</v>
       </c>
       <c r="G28" t="n">
-        <v>0.03130132936901706</v>
+        <v>0.04631793097203073</v>
       </c>
       <c r="H28" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I28" t="n">
+        <v>41</v>
+      </c>
+      <c r="J28" t="n">
+        <v>201</v>
+      </c>
+      <c r="K28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1236,22 +1444,31 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>5855755763.600196</v>
+        <v>4605611180.863788</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1339778493731338</v>
+        <v>0.1178583506325659</v>
       </c>
       <c r="G29" t="n">
-        <v>0.03764417523657613</v>
+        <v>0.03542760140367322</v>
       </c>
       <c r="H29" t="b">
         <v>1</v>
+      </c>
+      <c r="I29" t="n">
+        <v>190</v>
+      </c>
+      <c r="J29" t="n">
+        <v>201</v>
+      </c>
+      <c r="K29" t="n">
+        <v>136.7773908154662</v>
       </c>
     </row>
     <row r="30">
@@ -1264,23 +1481,30 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>2314242578.825925</v>
+        <v>2309181882.354671</v>
       </c>
       <c r="F30" t="n">
-        <v>0.09003249344107399</v>
+        <v>0.09318750689322343</v>
       </c>
       <c r="G30" t="n">
-        <v>0.03468465599151058</v>
+        <v>0.02804740265334602</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
       </c>
+      <c r="I30" t="n">
+        <v>0</v>
+      </c>
+      <c r="J30" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1292,23 +1516,30 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1290240005.219856</v>
+        <v>1060671908.302458</v>
       </c>
       <c r="F31" t="n">
-        <v>0.1106142402941928</v>
+        <v>0.09114496770669325</v>
       </c>
       <c r="G31" t="n">
-        <v>0.04257361860394047</v>
+        <v>0.03811328799250008</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
       </c>
+      <c r="I31" t="n">
+        <v>0</v>
+      </c>
+      <c r="J31" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1320,23 +1551,30 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1476626074.540457</v>
+        <v>1389883838.953768</v>
       </c>
       <c r="F32" t="n">
-        <v>0.0743118702008395</v>
+        <v>0.1185818232316454</v>
       </c>
       <c r="G32" t="n">
-        <v>0.02337920284463957</v>
+        <v>0.03638187933666265</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
       </c>
+      <c r="I32" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1348,23 +1586,30 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2986946732.300681</v>
+        <v>2008672960.736841</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1461073211770566</v>
+        <v>0.1745911136527002</v>
       </c>
       <c r="G33" t="n">
-        <v>0.04186854132260865</v>
+        <v>0.05957780991338757</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
       </c>
+      <c r="I33" t="n">
+        <v>0</v>
+      </c>
+      <c r="J33" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1376,23 +1621,30 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1561319926.801887</v>
+        <v>1378407633.000128</v>
       </c>
       <c r="F34" t="n">
-        <v>0.09331770374651609</v>
+        <v>0.08178027427407192</v>
       </c>
       <c r="G34" t="n">
-        <v>0.02315805300663803</v>
+        <v>0.02579654225700997</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
       </c>
+      <c r="I34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J34" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1404,23 +1656,30 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>929300188.6079636</v>
+        <v>1036945779.338247</v>
       </c>
       <c r="F35" t="n">
-        <v>0.1071738530806651</v>
+        <v>0.1053248432642737</v>
       </c>
       <c r="G35" t="n">
-        <v>0.04519703259692317</v>
+        <v>0.04156581555656333</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
       </c>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1438,17 +1697,24 @@
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2780873350.422831</v>
+        <v>3171842701.168932</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1646892454132162</v>
+        <v>0.1630574961125169</v>
       </c>
       <c r="G36" t="n">
-        <v>0.01765621216805354</v>
+        <v>0.02127867579678375</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
       </c>
+      <c r="I36" t="n">
+        <v>3</v>
+      </c>
+      <c r="J36" t="n">
+        <v>144</v>
+      </c>
+      <c r="K36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1460,23 +1726,30 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2380744873.633724</v>
+        <v>2027714130.107005</v>
       </c>
       <c r="F37" t="n">
-        <v>0.1013073220215462</v>
+        <v>0.08256173488845688</v>
       </c>
       <c r="G37" t="n">
-        <v>0.04086855986707646</v>
+        <v>0.03373895601957023</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
       </c>
+      <c r="I37" t="n">
+        <v>0</v>
+      </c>
+      <c r="J37" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1494,17 +1767,24 @@
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>2032842881.918861</v>
+        <v>2139436402.548111</v>
       </c>
       <c r="F38" t="n">
-        <v>0.07582366296669324</v>
+        <v>0.1022137692862174</v>
       </c>
       <c r="G38" t="n">
-        <v>0.03055309887969834</v>
+        <v>0.03186511697739881</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
       </c>
+      <c r="I38" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1516,23 +1796,30 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1818515140.550658</v>
+        <v>1764511638.073358</v>
       </c>
       <c r="F39" t="n">
-        <v>0.185875897216006</v>
+        <v>0.1275418842395547</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02344970326332806</v>
+        <v>0.02522541392437962</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
       </c>
+      <c r="I39" t="n">
+        <v>0</v>
+      </c>
+      <c r="J39" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1544,23 +1831,30 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1463619585.566526</v>
+        <v>1105539103.950022</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1256672208850954</v>
+        <v>0.160333747153921</v>
       </c>
       <c r="G40" t="n">
-        <v>0.0580433943721697</v>
+        <v>0.05745447533844594</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
       </c>
+      <c r="I40" t="n">
+        <v>0</v>
+      </c>
+      <c r="J40" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1572,23 +1866,30 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>1869199523.053709</v>
+        <v>1949555767.895714</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1477789468108894</v>
+        <v>0.1002009856721018</v>
       </c>
       <c r="G41" t="n">
-        <v>0.03954322203186433</v>
+        <v>0.02918143862006758</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
       </c>
+      <c r="I41" t="n">
+        <v>0</v>
+      </c>
+      <c r="J41" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1600,23 +1901,30 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>3041005702.32551</v>
+        <v>4080098396.353441</v>
       </c>
       <c r="F42" t="n">
-        <v>0.08421794772977113</v>
+        <v>0.07938245448750016</v>
       </c>
       <c r="G42" t="n">
-        <v>0.03681466389965374</v>
+        <v>0.03780690346470042</v>
       </c>
       <c r="H42" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I42" t="n">
+        <v>79</v>
+      </c>
+      <c r="J42" t="n">
+        <v>201</v>
+      </c>
+      <c r="K42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1628,23 +1936,30 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>1862435977.101296</v>
+        <v>2386452492.855434</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1369031898898838</v>
+        <v>0.1492180890316886</v>
       </c>
       <c r="G43" t="n">
-        <v>0.0192050483651278</v>
+        <v>0.01739692395351401</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
       </c>
+      <c r="I43" t="n">
+        <v>0</v>
+      </c>
+      <c r="J43" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1656,23 +1971,30 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>1930657136.518459</v>
+        <v>2257433272.56698</v>
       </c>
       <c r="F44" t="n">
-        <v>0.066146930078086</v>
+        <v>0.07017953601858684</v>
       </c>
       <c r="G44" t="n">
-        <v>0.02549563556034339</v>
+        <v>0.02817792329187277</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
       </c>
+      <c r="I44" t="n">
+        <v>0</v>
+      </c>
+      <c r="J44" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1684,23 +2006,30 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>1666256379.749454</v>
+        <v>2403999385.031187</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1360492769627104</v>
+        <v>0.1216142347393843</v>
       </c>
       <c r="G45" t="n">
-        <v>0.03544646490494251</v>
+        <v>0.05342200926065547</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
       </c>
+      <c r="I45" t="n">
+        <v>0</v>
+      </c>
+      <c r="J45" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -1712,22 +2041,31 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>5028439654.920194</v>
+        <v>4194862821.194118</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1547172717414714</v>
+        <v>0.1560040424619035</v>
       </c>
       <c r="G46" t="n">
-        <v>0.04079651031625946</v>
+        <v>0.05986522071635357</v>
       </c>
       <c r="H46" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I46" t="n">
+        <v>115</v>
+      </c>
+      <c r="J46" t="n">
+        <v>200</v>
+      </c>
+      <c r="K46" t="n">
+        <v>99.86545308951429</v>
       </c>
     </row>
     <row r="47">
@@ -1740,22 +2078,31 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>4721249447.196617</v>
+        <v>4980616769.791817</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1751866868352815</v>
+        <v>0.178420562165125</v>
       </c>
       <c r="G47" t="n">
-        <v>0.042447962090757</v>
+        <v>0.04444489026194588</v>
       </c>
       <c r="H47" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I47" t="n">
+        <v>90</v>
+      </c>
+      <c r="J47" t="n">
+        <v>200</v>
+      </c>
+      <c r="K47" t="n">
+        <v>98.50419928296668</v>
       </c>
     </row>
     <row r="48">
@@ -1768,22 +2115,31 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>3734334318.553784</v>
+        <v>3945263734.618472</v>
       </c>
       <c r="F48" t="n">
-        <v>0.07160636796680471</v>
+        <v>0.06642048652228634</v>
       </c>
       <c r="G48" t="n">
-        <v>0.03072404254144359</v>
+        <v>0.038420957000387</v>
       </c>
       <c r="H48" t="b">
         <v>0</v>
+      </c>
+      <c r="I48" t="n">
+        <v>98</v>
+      </c>
+      <c r="J48" t="n">
+        <v>200</v>
+      </c>
+      <c r="K48" t="n">
+        <v>90.32419064572588</v>
       </c>
     </row>
     <row r="49">
@@ -1796,23 +2152,30 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1200395125.098125</v>
+        <v>1818428360.24649</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1614977395859647</v>
+        <v>0.1624853873481167</v>
       </c>
       <c r="G49" t="n">
-        <v>0.04366260905574229</v>
+        <v>0.04424994744960808</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
       </c>
+      <c r="I49" t="n">
+        <v>0</v>
+      </c>
+      <c r="J49" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -1830,17 +2193,24 @@
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>2735808541.74829</v>
+        <v>2588240508.030922</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1660768414433925</v>
+        <v>0.161400317476636</v>
       </c>
       <c r="G50" t="n">
-        <v>0.05037927326050315</v>
+        <v>0.03440094219480185</v>
       </c>
       <c r="H50" t="b">
         <v>0</v>
       </c>
+      <c r="I50" t="n">
+        <v>63</v>
+      </c>
+      <c r="J50" t="n">
+        <v>199</v>
+      </c>
+      <c r="K50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -1852,23 +2222,30 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>959158848.668676</v>
+        <v>1120956837.47989</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1710979920513072</v>
+        <v>0.1389933067473125</v>
       </c>
       <c r="G51" t="n">
-        <v>0.04926778391383935</v>
+        <v>0.0404564618258372</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
       </c>
+      <c r="I51" t="n">
+        <v>0</v>
+      </c>
+      <c r="J51" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -1886,17 +2263,24 @@
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>4582647544.453905</v>
+        <v>5051023826.855411</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1308309171443383</v>
+        <v>0.1145197852896472</v>
       </c>
       <c r="G52" t="n">
-        <v>0.04875494920521067</v>
+        <v>0.04954730108962455</v>
       </c>
       <c r="H52" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I52" t="n">
+        <v>138</v>
+      </c>
+      <c r="J52" t="n">
+        <v>201</v>
+      </c>
+      <c r="K52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -1914,17 +2298,24 @@
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>3441392524.307415</v>
+        <v>3780680414.82057</v>
       </c>
       <c r="F53" t="n">
-        <v>0.2012595863798602</v>
+        <v>0.1510595938614853</v>
       </c>
       <c r="G53" t="n">
-        <v>0.03545468806162638</v>
+        <v>0.0298989087339806</v>
       </c>
       <c r="H53" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I53" t="n">
+        <v>26</v>
+      </c>
+      <c r="J53" t="n">
+        <v>201</v>
+      </c>
+      <c r="K53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -1936,22 +2327,31 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>4907819092.072505</v>
+        <v>4974470168.370683</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1628211223186453</v>
+        <v>0.1268047388557637</v>
       </c>
       <c r="G54" t="n">
-        <v>0.03331254784002056</v>
+        <v>0.04462242760826161</v>
       </c>
       <c r="H54" t="b">
         <v>1</v>
+      </c>
+      <c r="I54" t="n">
+        <v>103</v>
+      </c>
+      <c r="J54" t="n">
+        <v>201</v>
+      </c>
+      <c r="K54" t="n">
+        <v>122.4319208875551</v>
       </c>
     </row>
     <row r="55">
@@ -1964,22 +2364,31 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>4062560530.407282</v>
+        <v>4865902498.739152</v>
       </c>
       <c r="F55" t="n">
-        <v>0.2232224197268819</v>
+        <v>0.2015652874519736</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02306927600648497</v>
+        <v>0.02283738951915581</v>
       </c>
       <c r="H55" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I55" t="n">
+        <v>90</v>
+      </c>
+      <c r="J55" t="n">
+        <v>200</v>
+      </c>
+      <c r="K55" t="n">
+        <v>117.2148232417004</v>
       </c>
     </row>
     <row r="56">
@@ -1992,23 +2401,30 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1683359541.077962</v>
+        <v>1247059826.277301</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1141333290016939</v>
+        <v>0.1595284572114672</v>
       </c>
       <c r="G56" t="n">
-        <v>0.0446848729032876</v>
+        <v>0.05695995227223231</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
       </c>
+      <c r="I56" t="n">
+        <v>0</v>
+      </c>
+      <c r="J56" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2020,22 +2436,31 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>3914997317.476925</v>
+        <v>3106298241.674527</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1710494912623225</v>
+        <v>0.1567456301652261</v>
       </c>
       <c r="G57" t="n">
-        <v>0.02475286598080142</v>
+        <v>0.01700340708295239</v>
       </c>
       <c r="H57" t="b">
         <v>0</v>
+      </c>
+      <c r="I57" t="n">
+        <v>80</v>
+      </c>
+      <c r="J57" t="n">
+        <v>200</v>
+      </c>
+      <c r="K57" t="n">
+        <v>54.46799485305272</v>
       </c>
     </row>
     <row r="58">
@@ -2048,23 +2473,30 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1442618239.812113</v>
+        <v>1383949996.878374</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1420977099196621</v>
+        <v>0.1382826120759274</v>
       </c>
       <c r="G58" t="n">
-        <v>0.02988794657126951</v>
+        <v>0.02452388090706988</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
       </c>
+      <c r="I58" t="n">
+        <v>0</v>
+      </c>
+      <c r="J58" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2076,22 +2508,31 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>3791274794.242288</v>
+        <v>5025294596.682524</v>
       </c>
       <c r="F59" t="n">
-        <v>0.1176104999421887</v>
+        <v>0.09004654361863565</v>
       </c>
       <c r="G59" t="n">
-        <v>0.03933631881986594</v>
+        <v>0.03649229137629463</v>
       </c>
       <c r="H59" t="b">
         <v>0</v>
+      </c>
+      <c r="I59" t="n">
+        <v>97</v>
+      </c>
+      <c r="J59" t="n">
+        <v>200</v>
+      </c>
+      <c r="K59" t="n">
+        <v>110.0283822833251</v>
       </c>
     </row>
     <row r="60">
@@ -2104,23 +2545,30 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>2861675344.712586</v>
+        <v>3027156382.830069</v>
       </c>
       <c r="F60" t="n">
-        <v>0.2063924008082545</v>
+        <v>0.1674708159512412</v>
       </c>
       <c r="G60" t="n">
-        <v>0.03272854900978351</v>
+        <v>0.02847385178981058</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
       </c>
+      <c r="I60" t="n">
+        <v>29</v>
+      </c>
+      <c r="J60" t="n">
+        <v>199</v>
+      </c>
+      <c r="K60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2138,17 +2586,24 @@
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>3201036658.099542</v>
+        <v>2769199658.214426</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1256642125441793</v>
+        <v>0.1547831935548927</v>
       </c>
       <c r="G61" t="n">
-        <v>0.03265538573418697</v>
+        <v>0.02217433280819671</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
       </c>
+      <c r="I61" t="n">
+        <v>6</v>
+      </c>
+      <c r="J61" t="n">
+        <v>188</v>
+      </c>
+      <c r="K61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2160,23 +2615,30 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1774175765.535237</v>
+        <v>2064775366.60425</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1496975901525357</v>
+        <v>0.1403125770678603</v>
       </c>
       <c r="G62" t="n">
-        <v>0.04745949533867494</v>
+        <v>0.04729043234831823</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
       </c>
+      <c r="I62" t="n">
+        <v>0</v>
+      </c>
+      <c r="J62" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2188,23 +2650,30 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>4050049376.268507</v>
+        <v>3593379238.158666</v>
       </c>
       <c r="F63" t="n">
-        <v>0.07696904286387891</v>
+        <v>0.1072954871097499</v>
       </c>
       <c r="G63" t="n">
-        <v>0.04003298171643985</v>
+        <v>0.04702753693138691</v>
       </c>
       <c r="H63" t="b">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I63" t="n">
+        <v>98</v>
+      </c>
+      <c r="J63" t="n">
+        <v>199</v>
+      </c>
+      <c r="K63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2216,22 +2685,31 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>4883362505.665928</v>
+        <v>5108892748.306835</v>
       </c>
       <c r="F64" t="n">
-        <v>0.137369965808213</v>
+        <v>0.1319180416293674</v>
       </c>
       <c r="G64" t="n">
-        <v>0.03441433019330986</v>
+        <v>0.02827475823565761</v>
       </c>
       <c r="H64" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I64" t="n">
+        <v>99</v>
+      </c>
+      <c r="J64" t="n">
+        <v>200</v>
+      </c>
+      <c r="K64" t="n">
+        <v>114.1917194258862</v>
       </c>
     </row>
     <row r="65">
@@ -2250,16 +2728,25 @@
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>3862695992.49225</v>
+        <v>3982303615.984118</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1062703149359791</v>
+        <v>0.1476089090832142</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02056244092154946</v>
+        <v>0.02837146613508534</v>
       </c>
       <c r="H65" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I65" t="n">
+        <v>162</v>
+      </c>
+      <c r="J65" t="n">
+        <v>200</v>
+      </c>
+      <c r="K65" t="n">
+        <v>91.95492398450646</v>
       </c>
     </row>
     <row r="66">
@@ -2272,22 +2759,31 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>4517375892.875995</v>
+        <v>5517483011.675355</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1192958934973626</v>
+        <v>0.1060975292346366</v>
       </c>
       <c r="G66" t="n">
-        <v>0.05066858591708678</v>
+        <v>0.03556750328925204</v>
       </c>
       <c r="H66" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I66" t="n">
+        <v>99</v>
+      </c>
+      <c r="J66" t="n">
+        <v>200</v>
+      </c>
+      <c r="K66" t="n">
+        <v>107.7533253311237</v>
       </c>
     </row>
     <row r="67">
@@ -2300,23 +2796,30 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>2163885349.176383</v>
+        <v>2683490722.634601</v>
       </c>
       <c r="F67" t="n">
-        <v>0.06273556525696122</v>
+        <v>0.0789200468845858</v>
       </c>
       <c r="G67" t="n">
-        <v>0.03810547244810016</v>
+        <v>0.05042743336596252</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
       </c>
+      <c r="I67" t="n">
+        <v>2</v>
+      </c>
+      <c r="J67" t="n">
+        <v>188</v>
+      </c>
+      <c r="K67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2334,17 +2837,24 @@
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>5759247095.920683</v>
+        <v>4636227965.914403</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1337160538355001</v>
+        <v>0.1058137300774806</v>
       </c>
       <c r="G68" t="n">
-        <v>0.04644543776053295</v>
+        <v>0.03603702072716938</v>
       </c>
       <c r="H68" t="b">
         <v>1</v>
       </c>
+      <c r="I68" t="n">
+        <v>101</v>
+      </c>
+      <c r="J68" t="n">
+        <v>201</v>
+      </c>
+      <c r="K68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2356,23 +2866,30 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>2490361748.334868</v>
+        <v>1657082412.932624</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1191104611269271</v>
+        <v>0.1272473129448191</v>
       </c>
       <c r="G69" t="n">
-        <v>0.04905431817815804</v>
+        <v>0.05087970138091464</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
       </c>
+      <c r="I69" t="n">
+        <v>0</v>
+      </c>
+      <c r="J69" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2384,23 +2901,30 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>2668845557.126156</v>
+        <v>2587695454.869659</v>
       </c>
       <c r="F70" t="n">
-        <v>0.1026216310641031</v>
+        <v>0.07449025972171677</v>
       </c>
       <c r="G70" t="n">
-        <v>0.04507777396671058</v>
+        <v>0.04692374387342766</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
       </c>
+      <c r="I70" t="n">
+        <v>30</v>
+      </c>
+      <c r="J70" t="n">
+        <v>198</v>
+      </c>
+      <c r="K70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2412,22 +2936,31 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>5559418242.10618</v>
+        <v>4826667044.821246</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1608022406269764</v>
+        <v>0.1370157083525956</v>
       </c>
       <c r="G71" t="n">
-        <v>0.03331267820074739</v>
+        <v>0.02531407842385538</v>
       </c>
       <c r="H71" t="b">
         <v>1</v>
+      </c>
+      <c r="I71" t="n">
+        <v>154</v>
+      </c>
+      <c r="J71" t="n">
+        <v>201</v>
+      </c>
+      <c r="K71" t="n">
+        <v>121.2871866392735</v>
       </c>
     </row>
     <row r="72">
@@ -2446,17 +2979,24 @@
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>2196924323.499831</v>
+        <v>1657780204.354374</v>
       </c>
       <c r="F72" t="n">
-        <v>0.08191063596153973</v>
+        <v>0.1040898720636284</v>
       </c>
       <c r="G72" t="n">
-        <v>0.04283144154617123</v>
+        <v>0.04416375592646284</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
       </c>
+      <c r="I72" t="n">
+        <v>0</v>
+      </c>
+      <c r="J72" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -2468,23 +3008,30 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>2602896369.325387</v>
+        <v>3060241763.518242</v>
       </c>
       <c r="F73" t="n">
-        <v>0.07192424509769255</v>
+        <v>0.08591578089420426</v>
       </c>
       <c r="G73" t="n">
-        <v>0.03855379471500196</v>
+        <v>0.04436729395521297</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
       </c>
+      <c r="I73" t="n">
+        <v>11</v>
+      </c>
+      <c r="J73" t="n">
+        <v>185</v>
+      </c>
+      <c r="K73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -2496,23 +3043,30 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>3249418275.701633</v>
+        <v>3748720127.631592</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1833515795300729</v>
+        <v>0.1562679978465412</v>
       </c>
       <c r="G74" t="n">
-        <v>0.02421411179564977</v>
+        <v>0.02778678743076774</v>
       </c>
       <c r="H74" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I74" t="n">
+        <v>57</v>
+      </c>
+      <c r="J74" t="n">
+        <v>201</v>
+      </c>
+      <c r="K74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -2524,23 +3078,30 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>2223579090.873064</v>
+        <v>1802811595.942706</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1483216514832102</v>
+        <v>0.1101555970531189</v>
       </c>
       <c r="G75" t="n">
-        <v>0.0250905389702693</v>
+        <v>0.02453279166903574</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
       </c>
+      <c r="I75" t="n">
+        <v>0</v>
+      </c>
+      <c r="J75" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -2558,16 +3119,25 @@
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>4756934748.068123</v>
+        <v>4486533313.420167</v>
       </c>
       <c r="F76" t="n">
-        <v>0.08801539071007959</v>
+        <v>0.09438626281350898</v>
       </c>
       <c r="G76" t="n">
-        <v>0.02900668566202688</v>
+        <v>0.02702043088405122</v>
       </c>
       <c r="H76" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I76" t="n">
+        <v>92</v>
+      </c>
+      <c r="J76" t="n">
+        <v>200</v>
+      </c>
+      <c r="K76" t="n">
+        <v>97.93877525501556</v>
       </c>
     </row>
     <row r="77">
@@ -2580,23 +3150,30 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>1962343558.60818</v>
+        <v>1922345485.020859</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1715273891297866</v>
+        <v>0.1443956354840549</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02490888175095746</v>
+        <v>0.02162743737939011</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
       </c>
+      <c r="I77" t="n">
+        <v>0</v>
+      </c>
+      <c r="J77" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -2608,22 +3185,31 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>3908542432.296711</v>
+        <v>3852989828.857718</v>
       </c>
       <c r="F78" t="n">
-        <v>0.08921022731963213</v>
+        <v>0.1276534093315821</v>
       </c>
       <c r="G78" t="n">
-        <v>0.04275649425070461</v>
+        <v>0.0404253183431759</v>
       </c>
       <c r="H78" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I78" t="n">
+        <v>100</v>
+      </c>
+      <c r="J78" t="n">
+        <v>200</v>
+      </c>
+      <c r="K78" t="n">
+        <v>85.79510183827087</v>
       </c>
     </row>
     <row r="79">
@@ -2642,17 +3228,24 @@
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1362658390.063139</v>
+        <v>1537465204.323178</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1342460443533704</v>
+        <v>0.1263678581069805</v>
       </c>
       <c r="G79" t="n">
-        <v>0.0335582597307767</v>
+        <v>0.03627219104348036</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
       </c>
+      <c r="I79" t="n">
+        <v>0</v>
+      </c>
+      <c r="J79" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -2670,17 +3263,24 @@
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>3563162502.529353</v>
+        <v>4758938138.653751</v>
       </c>
       <c r="F80" t="n">
-        <v>0.09251339641512649</v>
+        <v>0.1091718128571376</v>
       </c>
       <c r="G80" t="n">
-        <v>0.02816449067073936</v>
+        <v>0.03075080650576573</v>
       </c>
       <c r="H80" t="b">
         <v>1</v>
       </c>
+      <c r="I80" t="n">
+        <v>98</v>
+      </c>
+      <c r="J80" t="n">
+        <v>201</v>
+      </c>
+      <c r="K80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -2692,23 +3292,30 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>5107716359.446532</v>
+        <v>3968280175.354538</v>
       </c>
       <c r="F81" t="n">
-        <v>0.115751790854606</v>
+        <v>0.1354185043768109</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02727895349987433</v>
+        <v>0.02034323617412915</v>
       </c>
       <c r="H81" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I81" t="n">
+        <v>92</v>
+      </c>
+      <c r="J81" t="n">
+        <v>201</v>
+      </c>
+      <c r="K81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -2720,22 +3327,31 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>3584965010.258063</v>
+        <v>5201089402.372561</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1808912208199895</v>
+        <v>0.1607101329105142</v>
       </c>
       <c r="G82" t="n">
-        <v>0.01979159377410697</v>
+        <v>0.02348378913606158</v>
       </c>
       <c r="H82" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I82" t="n">
+        <v>148</v>
+      </c>
+      <c r="J82" t="n">
+        <v>201</v>
+      </c>
+      <c r="K82" t="n">
+        <v>127.8146637889222</v>
       </c>
     </row>
     <row r="83">
@@ -2748,23 +3364,30 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>1942512419.990991</v>
+        <v>2132458763.594544</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1017187768702028</v>
+        <v>0.1283513233942451</v>
       </c>
       <c r="G83" t="n">
-        <v>0.03793763547539805</v>
+        <v>0.03382973854375503</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
       </c>
+      <c r="I83" t="n">
+        <v>0</v>
+      </c>
+      <c r="J83" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -2782,17 +3405,24 @@
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>2446523185.940397</v>
+        <v>2164005729.517005</v>
       </c>
       <c r="F84" t="n">
-        <v>0.07544301969799824</v>
+        <v>0.113812070448363</v>
       </c>
       <c r="G84" t="n">
-        <v>0.0326799499757712</v>
+        <v>0.04854540819762024</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
       </c>
+      <c r="I84" t="n">
+        <v>0</v>
+      </c>
+      <c r="J84" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -2810,17 +3440,24 @@
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>2476646072.60434</v>
+        <v>2243886938.635672</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1526978996864287</v>
+        <v>0.1559945966740565</v>
       </c>
       <c r="G85" t="n">
-        <v>0.04068020351052786</v>
+        <v>0.04194796292690301</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
       </c>
+      <c r="I85" t="n">
+        <v>28</v>
+      </c>
+      <c r="J85" t="n">
+        <v>197</v>
+      </c>
+      <c r="K85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -2832,23 +3469,30 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2227040445.835217</v>
+        <v>2490195535.995608</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1364955635926724</v>
+        <v>0.1566136719611376</v>
       </c>
       <c r="G86" t="n">
-        <v>0.02261188635606557</v>
+        <v>0.01944167133359258</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
       </c>
+      <c r="I86" t="n">
+        <v>0</v>
+      </c>
+      <c r="J86" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -2860,23 +3504,30 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1481710023.748093</v>
+        <v>1121098286.59392</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1163226487537388</v>
+        <v>0.127127733033525</v>
       </c>
       <c r="G87" t="n">
-        <v>0.03359473467737839</v>
+        <v>0.03008446957100622</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
       </c>
+      <c r="I87" t="n">
+        <v>0</v>
+      </c>
+      <c r="J87" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -2888,23 +3539,30 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>2301033069.379285</v>
+        <v>2348986505.436561</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1556557086551286</v>
+        <v>0.1155477554021467</v>
       </c>
       <c r="G88" t="n">
-        <v>0.03381283791508394</v>
+        <v>0.03889699303009981</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
       </c>
+      <c r="I88" t="n">
+        <v>28</v>
+      </c>
+      <c r="J88" t="n">
+        <v>192</v>
+      </c>
+      <c r="K88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -2916,23 +3574,30 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>3114186088.196381</v>
+        <v>3316590957.528999</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1371191776188813</v>
+        <v>0.1212697386523755</v>
       </c>
       <c r="G89" t="n">
-        <v>0.03722920663815464</v>
+        <v>0.04116844785381052</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
       </c>
+      <c r="I89" t="n">
+        <v>14</v>
+      </c>
+      <c r="J89" t="n">
+        <v>190</v>
+      </c>
+      <c r="K89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -2944,23 +3609,30 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1684346741.216941</v>
+        <v>2114641276.669256</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1102609966925405</v>
+        <v>0.1275037617101891</v>
       </c>
       <c r="G90" t="n">
-        <v>0.04573464923603093</v>
+        <v>0.03772086356425249</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
       </c>
+      <c r="I90" t="n">
+        <v>0</v>
+      </c>
+      <c r="J90" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -2972,23 +3644,30 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1728329553.403578</v>
+        <v>2043952994.191748</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1404842361823978</v>
+        <v>0.1599419856829376</v>
       </c>
       <c r="G91" t="n">
-        <v>0.04445098463493093</v>
+        <v>0.06203834041189711</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
       </c>
+      <c r="I91" t="n">
+        <v>0</v>
+      </c>
+      <c r="J91" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3000,23 +3679,30 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>1923488327.999182</v>
+        <v>2310322480.847785</v>
       </c>
       <c r="F92" t="n">
-        <v>0.1052011796248134</v>
+        <v>0.07721092312349906</v>
       </c>
       <c r="G92" t="n">
-        <v>0.04460684808421359</v>
+        <v>0.04588092899768372</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
       </c>
+      <c r="I92" t="n">
+        <v>0</v>
+      </c>
+      <c r="J92" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3028,22 +3714,31 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>3498858412.666111</v>
+        <v>3177880671.859669</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1125527464757843</v>
+        <v>0.101176237739548</v>
       </c>
       <c r="G93" t="n">
-        <v>0.04908134480232912</v>
+        <v>0.03787160371610079</v>
       </c>
       <c r="H93" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I93" t="n">
+        <v>91</v>
+      </c>
+      <c r="J93" t="n">
+        <v>200</v>
+      </c>
+      <c r="K93" t="n">
+        <v>54.32668454120274</v>
       </c>
     </row>
     <row r="94">
@@ -3062,17 +3757,24 @@
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>2080655881.023738</v>
+        <v>2145136715.373192</v>
       </c>
       <c r="F94" t="n">
-        <v>0.119510838441772</v>
+        <v>0.1228772106524828</v>
       </c>
       <c r="G94" t="n">
-        <v>0.03621233576702138</v>
+        <v>0.03892517222757144</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
       </c>
+      <c r="I94" t="n">
+        <v>0</v>
+      </c>
+      <c r="J94" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3084,23 +3786,30 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>3200614786.743782</v>
+        <v>2124545120.528457</v>
       </c>
       <c r="F95" t="n">
-        <v>0.134441386491089</v>
+        <v>0.1303210445918813</v>
       </c>
       <c r="G95" t="n">
-        <v>0.04879178985948209</v>
+        <v>0.05045161520366023</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
       </c>
+      <c r="I95" t="n">
+        <v>2</v>
+      </c>
+      <c r="J95" t="n">
+        <v>127</v>
+      </c>
+      <c r="K95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3112,23 +3821,30 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>2249404843.002951</v>
+        <v>2007919025.182261</v>
       </c>
       <c r="F96" t="n">
-        <v>0.09468227990231491</v>
+        <v>0.1275317237633087</v>
       </c>
       <c r="G96" t="n">
-        <v>0.03270430236014864</v>
+        <v>0.03001088179778388</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
       </c>
+      <c r="I96" t="n">
+        <v>0</v>
+      </c>
+      <c r="J96" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3146,17 +3862,24 @@
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>5265175488.365528</v>
+        <v>3380857026.823604</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1513669048382783</v>
+        <v>0.1713287637296715</v>
       </c>
       <c r="G97" t="n">
-        <v>0.0249559593481609</v>
+        <v>0.02102730509572794</v>
       </c>
       <c r="H97" t="b">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I97" t="n">
+        <v>97</v>
+      </c>
+      <c r="J97" t="n">
+        <v>199</v>
+      </c>
+      <c r="K97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -3168,22 +3891,31 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>3829785111.080195</v>
+        <v>2945174452.607272</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1033610477391057</v>
+        <v>0.08597255960192204</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02984849781408265</v>
+        <v>0.02769607747039015</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
+      </c>
+      <c r="I98" t="n">
+        <v>50</v>
+      </c>
+      <c r="J98" t="n">
+        <v>200</v>
+      </c>
+      <c r="K98" t="n">
+        <v>44.02216727789371</v>
       </c>
     </row>
     <row r="99">
@@ -3196,23 +3928,30 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>3123442542.976476</v>
+        <v>3073971113.564749</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1481302436148288</v>
+        <v>0.094342236036619</v>
       </c>
       <c r="G99" t="n">
-        <v>0.02575475028744657</v>
+        <v>0.03244500050370735</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
       </c>
+      <c r="I99" t="n">
+        <v>2</v>
+      </c>
+      <c r="J99" t="n">
+        <v>135</v>
+      </c>
+      <c r="K99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3224,22 +3963,31 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>4581002324.172521</v>
+        <v>4800218718.859632</v>
       </c>
       <c r="F100" t="n">
-        <v>0.177667720344491</v>
+        <v>0.1688404351954117</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02470450480815084</v>
+        <v>0.01982732456740361</v>
       </c>
       <c r="H100" t="b">
         <v>0</v>
+      </c>
+      <c r="I100" t="n">
+        <v>83</v>
+      </c>
+      <c r="J100" t="n">
+        <v>200</v>
+      </c>
+      <c r="K100" t="n">
+        <v>115.1529570111116</v>
       </c>
     </row>
     <row r="101">
@@ -3252,23 +4000,30 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>3469950913.881329</v>
+        <v>3364472302.233532</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1779213961110827</v>
+        <v>0.2121833160180581</v>
       </c>
       <c r="G101" t="n">
-        <v>0.03568191903357278</v>
+        <v>0.04323823257028785</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>
       </c>
+      <c r="I101" t="n">
+        <v>18</v>
+      </c>
+      <c r="J101" t="n">
+        <v>179</v>
+      </c>
+      <c r="K101" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
